--- a/raw_data/XRP-USD_4h_process.xlsx
+++ b/raw_data/XRP-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.6413279175758362</v>
+        <v>0.5748281478881836</v>
       </c>
       <c r="C2">
-        <v>0.6415382623672485</v>
+        <v>0.5796485543251038</v>
       </c>
       <c r="D2">
-        <v>0.6330463290214539</v>
+        <v>0.5716667771339417</v>
       </c>
       <c r="E2">
-        <v>0.6348667144775391</v>
+        <v>0.5746231079101562</v>
       </c>
       <c r="F2">
-        <v>32335488</v>
+        <v>136589312</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.6349483728408813</v>
+        <v>0.5746734142303467</v>
       </c>
       <c r="C3">
-        <v>0.6476508975028992</v>
+        <v>0.5899097323417664</v>
       </c>
       <c r="D3">
-        <v>0.6343430876731873</v>
+        <v>0.5745346546173096</v>
       </c>
       <c r="E3">
-        <v>0.6418225765228271</v>
+        <v>0.5825332999229431</v>
       </c>
       <c r="F3">
-        <v>183730944</v>
+        <v>156219136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.641839861869812</v>
+        <v>0.5825768113136292</v>
       </c>
       <c r="C4">
-        <v>0.6557692289352417</v>
+        <v>0.5836222171783447</v>
       </c>
       <c r="D4">
-        <v>0.6352968811988831</v>
+        <v>0.5736010670661926</v>
       </c>
       <c r="E4">
-        <v>0.637598991394043</v>
+        <v>0.582265317440033</v>
       </c>
       <c r="F4">
-        <v>259156096</v>
+        <v>115320832</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.6376437544822693</v>
+        <v>0.5822688937187195</v>
       </c>
       <c r="C5">
-        <v>0.6497135758399963</v>
+        <v>0.5845108032226562</v>
       </c>
       <c r="D5">
-        <v>0.635140597820282</v>
+        <v>0.5761711001396179</v>
       </c>
       <c r="E5">
-        <v>0.6442315578460693</v>
+        <v>0.5761711001396179</v>
       </c>
       <c r="F5">
-        <v>2895744</v>
+        <v>28385024</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.6442132592201233</v>
+        <v>0.5761424899101257</v>
       </c>
       <c r="C6">
-        <v>0.6450085043907166</v>
+        <v>0.5784071087837219</v>
       </c>
       <c r="D6">
-        <v>0.6277203559875488</v>
+        <v>0.5729554891586304</v>
       </c>
       <c r="E6">
-        <v>0.629884660243988</v>
+        <v>0.5772214531898499</v>
       </c>
       <c r="F6">
-        <v>113106432</v>
+        <v>38273024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.6298797726631165</v>
+        <v>0.5772215723991394</v>
       </c>
       <c r="C7">
-        <v>0.6335924863815308</v>
+        <v>0.587922990322113</v>
       </c>
       <c r="D7">
-        <v>0.6280608773231506</v>
+        <v>0.5767257809638977</v>
       </c>
       <c r="E7">
-        <v>0.6327782869338989</v>
+        <v>0.5862396955490112</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.6327347755432129</v>
+        <v>0.5862817168235779</v>
       </c>
       <c r="C8">
-        <v>0.6366938948631287</v>
+        <v>0.5896651744842529</v>
       </c>
       <c r="D8">
-        <v>0.6275573968887329</v>
+        <v>0.5827974081039429</v>
       </c>
       <c r="E8">
-        <v>0.634941041469574</v>
+        <v>0.5874826908111572</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.6350111961364746</v>
+        <v>0.5874786972999573</v>
       </c>
       <c r="C9">
-        <v>0.6357516050338745</v>
+        <v>0.5939414501190186</v>
       </c>
       <c r="D9">
-        <v>0.6251903176307678</v>
+        <v>0.5872952342033386</v>
       </c>
       <c r="E9">
-        <v>0.6320436000823975</v>
+        <v>0.5881929397583008</v>
       </c>
       <c r="F9">
-        <v>7168896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.6320276856422424</v>
+        <v>0.5881974697113037</v>
       </c>
       <c r="C10">
-        <v>0.6329789161682129</v>
+        <v>0.5894128680229187</v>
       </c>
       <c r="D10">
-        <v>0.62564617395401</v>
+        <v>0.5710316300392151</v>
       </c>
       <c r="E10">
-        <v>0.62564617395401</v>
+        <v>0.5767134428024292</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>90085632</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.6256079077720642</v>
+        <v>0.5767213106155396</v>
       </c>
       <c r="C11">
-        <v>0.632519006729126</v>
+        <v>0.5787498950958252</v>
       </c>
       <c r="D11">
-        <v>0.625278651714325</v>
+        <v>0.5736817717552185</v>
       </c>
       <c r="E11">
-        <v>0.6324794888496399</v>
+        <v>0.5747913718223572</v>
       </c>
       <c r="F11">
-        <v>9760128</v>
+        <v>5783808</v>
       </c>
       <c r="L11">
-        <v>47.57165543005424</v>
+        <v>41.30164276768123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.6324521899223328</v>
+        <v>0.5747838020324707</v>
       </c>
       <c r="C12">
-        <v>0.636594831943512</v>
+        <v>0.5794289708137512</v>
       </c>
       <c r="D12">
-        <v>0.6246119141578674</v>
+        <v>0.5698215365409851</v>
       </c>
       <c r="E12">
-        <v>0.6246119141578674</v>
+        <v>0.5698215365409851</v>
       </c>
       <c r="F12">
-        <v>10084864</v>
+        <v>41719808</v>
       </c>
       <c r="L12">
-        <v>37.72966549711295</v>
+        <v>33.9872786561352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.6245768666267395</v>
+        <v>0.5698362588882446</v>
       </c>
       <c r="C13">
-        <v>0.6260547041893005</v>
+        <v>0.5730606317520142</v>
       </c>
       <c r="D13">
-        <v>0.6175369024276733</v>
+        <v>0.5626935362815857</v>
       </c>
       <c r="E13">
-        <v>0.6238401532173157</v>
+        <v>0.5635650753974915</v>
       </c>
       <c r="F13">
-        <v>73918336</v>
+        <v>45213568</v>
       </c>
       <c r="L13">
-        <v>36.88747938722778</v>
+        <v>27.17216914931905</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1266,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.6238482594490051</v>
+        <v>0.5639501214027405</v>
       </c>
       <c r="C14">
-        <v>0.6238482594490051</v>
+        <v>0.570124626159668</v>
       </c>
       <c r="D14">
-        <v>0.6151904463768005</v>
+        <v>0.5584442019462585</v>
       </c>
       <c r="E14">
-        <v>0.62336266040802</v>
+        <v>0.5683121681213379</v>
       </c>
       <c r="F14">
-        <v>26799872</v>
+        <v>55639808</v>
       </c>
       <c r="L14">
-        <v>36.32313397926343</v>
+        <v>37.81576190883732</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1289,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.623410701751709</v>
+        <v>0.5683178305625916</v>
       </c>
       <c r="C15">
-        <v>0.6248776316642761</v>
+        <v>0.5766392350196838</v>
       </c>
       <c r="D15">
-        <v>0.6200650334358215</v>
+        <v>0.5683178305625916</v>
       </c>
       <c r="E15">
-        <v>0.6212849020957947</v>
+        <v>0.5764815211296082</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4208768</v>
       </c>
       <c r="L15">
-        <v>33.79229552084229</v>
+        <v>51.53011519136237</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1312,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.6212893724441528</v>
+        <v>0.5765121579170227</v>
       </c>
       <c r="C16">
-        <v>0.6258550882339478</v>
+        <v>0.5765121579170227</v>
       </c>
       <c r="D16">
-        <v>0.6211614608764648</v>
+        <v>0.572426438331604</v>
       </c>
       <c r="E16">
-        <v>0.6227599382400513</v>
+        <v>0.5726132988929749</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>37.28234116979537</v>
+        <v>46.11270309728388</v>
       </c>
       <c r="M16">
-        <v>38.39302487005599</v>
+        <v>46.52368603083521</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1335,25 +1338,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.6227465271949768</v>
+        <v>0.5726549029350281</v>
       </c>
       <c r="C17">
-        <v>0.6232793927192688</v>
+        <v>0.5739743113517761</v>
       </c>
       <c r="D17">
-        <v>0.6171945333480835</v>
+        <v>0.5593862533569336</v>
       </c>
       <c r="E17">
-        <v>0.6207675337791443</v>
+        <v>0.564782440662384</v>
       </c>
       <c r="F17">
-        <v>9828416</v>
+        <v>31760000</v>
       </c>
       <c r="L17">
-        <v>34.51738748850528</v>
+        <v>37.20472194192141</v>
       </c>
       <c r="M17">
-        <v>36.32403217193104</v>
+        <v>39.18124628551455</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1361,25 +1364,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.6207830905914307</v>
+        <v>0.5647712349891663</v>
       </c>
       <c r="C18">
-        <v>0.6291691660881042</v>
+        <v>0.5676617622375488</v>
       </c>
       <c r="D18">
-        <v>0.6207154989242554</v>
+        <v>0.5626458525657654</v>
       </c>
       <c r="E18">
-        <v>0.6288375854492188</v>
+        <v>0.5666540861129761</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>51.05703620565441</v>
+        <v>40.30542594586684</v>
       </c>
       <c r="M18">
-        <v>48.44327400431037</v>
+        <v>41.55540386901488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1387,25 +1390,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.628826916217804</v>
+        <v>0.5666497945785522</v>
       </c>
       <c r="C19">
-        <v>0.6294786930084229</v>
+        <v>0.5727750658988953</v>
       </c>
       <c r="D19">
-        <v>0.6252158284187317</v>
+        <v>0.5660699605941772</v>
       </c>
       <c r="E19">
-        <v>0.6252158284187317</v>
+        <v>0.5717154741287231</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>45.28239280938579</v>
+        <v>48.1016676828655</v>
       </c>
       <c r="M19">
-        <v>44.36249100595762</v>
+        <v>47.52142505613527</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1413,25 +1416,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.625213623046875</v>
+        <v>0.5716976523399353</v>
       </c>
       <c r="C20">
-        <v>0.6257843971252441</v>
+        <v>0.5724620223045349</v>
       </c>
       <c r="D20">
-        <v>0.6217682957649231</v>
+        <v>0.5682774782180786</v>
       </c>
       <c r="E20">
-        <v>0.6218715310096741</v>
+        <v>0.5696703791618347</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.52145308766742</v>
+        <v>45.4060369025006</v>
       </c>
       <c r="M20">
-        <v>40.93355236241866</v>
+        <v>45.50034440548797</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1439,28 +1442,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.6217920184135437</v>
+        <v>0.569675624370575</v>
       </c>
       <c r="C21">
-        <v>0.6235935091972351</v>
+        <v>0.570365309715271</v>
       </c>
       <c r="D21">
-        <v>0.6194062232971191</v>
+        <v>0.566137433052063</v>
       </c>
       <c r="E21">
-        <v>0.6206701397895813</v>
+        <v>0.5684754848480225</v>
       </c>
       <c r="F21">
-        <v>2540992</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6289757639169693</v>
+        <v>0.5749162942171097</v>
       </c>
       <c r="L21">
-        <v>38.86984059725923</v>
+        <v>43.79289538121849</v>
       </c>
       <c r="M21">
-        <v>39.74507382709462</v>
+        <v>44.3144653455151</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1468,31 +1471,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.6206868886947632</v>
+        <v>0.5685210824012756</v>
       </c>
       <c r="C22">
-        <v>0.6244824528694153</v>
+        <v>0.571511447429657</v>
       </c>
       <c r="D22">
-        <v>0.6205768585205078</v>
+        <v>0.5663949251174927</v>
       </c>
       <c r="E22">
-        <v>0.6235066652297974</v>
+        <v>0.5673549175262451</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>8947520</v>
       </c>
       <c r="G22">
-        <v>0.6287153306461516</v>
+        <v>0.5745562286604018</v>
       </c>
       <c r="H22">
-        <v>0.6284077614545822</v>
+        <v>0.5745528846979141</v>
       </c>
       <c r="L22">
-        <v>44.84144190387636</v>
+        <v>42.2107621690708</v>
       </c>
       <c r="M22">
-        <v>43.88753251498311</v>
+        <v>43.1779357879065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1500,31 +1503,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.6234830021858215</v>
+        <v>0.567361056804657</v>
       </c>
       <c r="C23">
-        <v>0.6275762915611267</v>
+        <v>0.5701772570610046</v>
       </c>
       <c r="D23">
-        <v>0.6226246356964111</v>
+        <v>0.5668908953666687</v>
       </c>
       <c r="E23">
-        <v>0.6238270401954651</v>
+        <v>0.5699447989463806</v>
       </c>
       <c r="F23">
-        <v>3014976</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6282709406051801</v>
+        <v>0.5741370077773089</v>
       </c>
       <c r="H23">
-        <v>0.6275079846382141</v>
+        <v>0.573923459649086</v>
       </c>
       <c r="L23">
-        <v>45.51770406661013</v>
+        <v>47.17312752908509</v>
       </c>
       <c r="M23">
-        <v>44.35286674051282</v>
+        <v>46.58754326711087</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1532,31 +1535,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.6238342523574829</v>
+        <v>0.569953978061676</v>
       </c>
       <c r="C24">
-        <v>0.6251136064529419</v>
+        <v>0.5727759003639221</v>
       </c>
       <c r="D24">
-        <v>0.6215015053749084</v>
+        <v>0.5664007663726807</v>
       </c>
       <c r="E24">
-        <v>0.6226192116737366</v>
+        <v>0.5673487186431885</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>62538304</v>
       </c>
       <c r="G24">
-        <v>0.6277571470659579</v>
+        <v>0.573519890583298</v>
       </c>
       <c r="H24">
-        <v>0.6267589956521988</v>
+        <v>0.5731776297092438</v>
       </c>
       <c r="L24">
-        <v>43.26778902873254</v>
+        <v>43.00840675797072</v>
       </c>
       <c r="M24">
-        <v>42.90816896784263</v>
+        <v>43.75339809599785</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1564,31 +1567,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.6226023435592651</v>
+        <v>0.5673409104347229</v>
       </c>
       <c r="C25">
-        <v>0.623894214630127</v>
+        <v>0.5708894729614258</v>
       </c>
       <c r="D25">
-        <v>0.6207411289215088</v>
+        <v>0.5654203295707703</v>
       </c>
       <c r="E25">
-        <v>0.6209678649902344</v>
+        <v>0.5682609081268311</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>12019328</v>
       </c>
       <c r="G25">
-        <v>0.6271399396045285</v>
+        <v>0.5730418012690737</v>
       </c>
       <c r="H25">
-        <v>0.6255958110094071</v>
+        <v>0.5727821201086044</v>
       </c>
       <c r="L25">
-        <v>40.21066848317281</v>
+        <v>44.93027490278191</v>
       </c>
       <c r="M25">
-        <v>40.94449886201802</v>
+        <v>45.01905532144008</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1596,31 +1599,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.6209772229194641</v>
+        <v>0.5682356357574463</v>
       </c>
       <c r="C26">
-        <v>0.6209772229194641</v>
+        <v>0.5686549544334412</v>
       </c>
       <c r="D26">
-        <v>0.6112084984779358</v>
+        <v>0.5623816847801208</v>
       </c>
       <c r="E26">
-        <v>0.6149425506591797</v>
+        <v>0.5683266520500183</v>
       </c>
       <c r="F26">
-        <v>104460224</v>
+        <v>19092352</v>
       </c>
       <c r="G26">
-        <v>0.6260310860640422</v>
+        <v>0.5726131513400686</v>
       </c>
       <c r="H26">
-        <v>0.6248487055301666</v>
+        <v>0.5723373800516128</v>
       </c>
       <c r="L26">
-        <v>31.17035353809648</v>
+        <v>45.08043790195961</v>
       </c>
       <c r="M26">
-        <v>34.70381845558785</v>
+        <v>45.11491355113015</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1628,31 +1631,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.6149861812591553</v>
+        <v>0.5683027505874634</v>
       </c>
       <c r="C27">
-        <v>0.6188368201255798</v>
+        <v>0.5683027505874634</v>
       </c>
       <c r="D27">
-        <v>0.6129770278930664</v>
+        <v>0.5484771728515625</v>
       </c>
       <c r="E27">
-        <v>0.6135287284851074</v>
+        <v>0.5517540574073792</v>
       </c>
       <c r="F27">
-        <v>53429184</v>
+        <v>137352576</v>
       </c>
       <c r="G27">
-        <v>0.6248945081023208</v>
+        <v>0.5707168700734605</v>
       </c>
       <c r="H27">
-        <v>0.6238862276077271</v>
+        <v>0.5706130981445312</v>
       </c>
       <c r="L27">
-        <v>29.42407813980815</v>
+        <v>25.42204726261761</v>
       </c>
       <c r="M27">
-        <v>33.41675368295284</v>
+        <v>30.62166857533907</v>
       </c>
       <c r="N27" t="s">
         <v>195</v>
@@ -1663,31 +1666,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.613487720489502</v>
+        <v>0.5517160892486572</v>
       </c>
       <c r="C28">
-        <v>0.6153506636619568</v>
+        <v>0.578541100025177</v>
       </c>
       <c r="D28">
-        <v>0.6096360683441162</v>
+        <v>0.5506752133369446</v>
       </c>
       <c r="E28">
-        <v>0.6153295040130615</v>
+        <v>0.5596024990081787</v>
       </c>
       <c r="F28">
-        <v>39567616</v>
+        <v>661404736</v>
       </c>
       <c r="G28">
-        <v>0.6240249622760246</v>
+        <v>0.5697064727038894</v>
       </c>
       <c r="H28">
-        <v>0.6229056507349015</v>
+        <v>0.5692190885543823</v>
       </c>
       <c r="L28">
-        <v>34.66864903188888</v>
+        <v>39.48215727621117</v>
       </c>
       <c r="M28">
-        <v>36.63995966697257</v>
+        <v>40.38848972696838</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1695,31 +1698,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.6153300404548645</v>
+        <v>0.5596283078193665</v>
       </c>
       <c r="C29">
-        <v>0.6199776530265808</v>
+        <v>0.5641767978668213</v>
       </c>
       <c r="D29">
-        <v>0.6149909496307373</v>
+        <v>0.5554941296577454</v>
       </c>
       <c r="E29">
-        <v>0.6199776530265808</v>
+        <v>0.5576435327529907</v>
       </c>
       <c r="F29">
-        <v>458112</v>
+        <v>165593984</v>
       </c>
       <c r="G29">
-        <v>0.6236570250715296</v>
+        <v>0.5686098417992622</v>
       </c>
       <c r="H29">
-        <v>0.6223023533821106</v>
+        <v>0.5676916182041168</v>
       </c>
       <c r="L29">
-        <v>46.26417178552569</v>
+        <v>37.4971045725326</v>
       </c>
       <c r="M29">
-        <v>44.15471358340179</v>
+        <v>38.91589051242337</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1727,31 +1730,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.619996190071106</v>
+        <v>0.5576469302177429</v>
       </c>
       <c r="C30">
-        <v>0.6220126748085022</v>
+        <v>0.5621088147163391</v>
       </c>
       <c r="D30">
-        <v>0.6193858981132507</v>
+        <v>0.5527498126029968</v>
       </c>
       <c r="E30">
-        <v>0.6220126748085022</v>
+        <v>0.5621088147163391</v>
       </c>
       <c r="F30">
-        <v>907264</v>
+        <v>40914048</v>
       </c>
       <c r="G30">
-        <v>0.6235075386839817</v>
+        <v>0.5680188393371782</v>
       </c>
       <c r="H30">
-        <v>0.6221206784248352</v>
+        <v>0.5669613867998123</v>
       </c>
       <c r="L30">
-        <v>50.58410379534547</v>
+        <v>44.63515645220119</v>
       </c>
       <c r="M30">
-        <v>47.11223717688014</v>
+        <v>43.93392583846553</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1759,34 +1762,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.6220106482505798</v>
+        <v>0.5621450543403625</v>
       </c>
       <c r="C31">
-        <v>0.6261644959449768</v>
+        <v>0.5692297220230103</v>
       </c>
       <c r="D31">
-        <v>0.6206697821617126</v>
+        <v>0.5621450543403625</v>
       </c>
       <c r="E31">
-        <v>0.6261644959449768</v>
+        <v>0.5663185119628906</v>
       </c>
       <c r="F31">
-        <v>27134400</v>
+        <v>146258432</v>
       </c>
       <c r="G31">
-        <v>0.623749080253163</v>
+        <v>0.5678642641213338</v>
       </c>
       <c r="H31">
-        <v>0.621804928779602</v>
+        <v>0.566537743806839</v>
       </c>
       <c r="I31">
-        <v>0.6260797222455342</v>
+        <v>0.5712329765160878</v>
       </c>
       <c r="L31">
-        <v>58.28179783146604</v>
+        <v>50.61671106427296</v>
       </c>
       <c r="M31">
-        <v>52.62472560061163</v>
+        <v>48.25012458970338</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1794,4616 +1797,4604 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.6261364221572876</v>
+        <v>0.5662993788719177</v>
       </c>
       <c r="C32">
-        <v>0.6312754154205322</v>
+        <v>0.5815949440002441</v>
       </c>
       <c r="D32">
-        <v>0.6261364221572876</v>
+        <v>0.5656383037567139</v>
       </c>
       <c r="E32">
-        <v>0.6300811171531677</v>
+        <v>0.5809418559074402</v>
       </c>
       <c r="F32">
-        <v>5091008</v>
+        <v>155672704</v>
       </c>
       <c r="G32">
-        <v>0.6243247199713452</v>
+        <v>0.5690531361018889</v>
       </c>
       <c r="H32">
-        <v>0.6220783889293671</v>
+        <v>0.5670937597751617</v>
       </c>
       <c r="I32">
-        <v>0.6259202023347219</v>
+        <v>0.5714436014493306</v>
       </c>
       <c r="L32">
-        <v>64.20014801157991</v>
+        <v>65.27707262360602</v>
       </c>
       <c r="M32">
-        <v>57.16090668693209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>59.82130426362082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.6300937533378601</v>
+        <v>0.581010103225708</v>
       </c>
       <c r="C33">
-        <v>0.6357278227806091</v>
+        <v>0.5814438462257385</v>
       </c>
       <c r="D33">
-        <v>0.62983238697052</v>
+        <v>0.5763160586357117</v>
       </c>
       <c r="E33">
-        <v>0.6348032355308533</v>
+        <v>0.5779107213020325</v>
       </c>
       <c r="F33">
-        <v>88345856</v>
+        <v>56375424</v>
       </c>
       <c r="G33">
-        <v>0.6252773122949369</v>
+        <v>0.5698583711200838</v>
       </c>
       <c r="H33">
-        <v>0.6226265430450439</v>
+        <v>0.5678110420703888</v>
       </c>
       <c r="I33">
-        <v>0.6256862243016561</v>
+        <v>0.5712895154953003</v>
       </c>
       <c r="L33">
-        <v>69.97717559610716</v>
+        <v>61.05071288540029</v>
       </c>
       <c r="M33">
-        <v>61.89784924425086</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>56.97740501930903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.6348059177398682</v>
+        <v>0.5779644250869751</v>
       </c>
       <c r="C34">
-        <v>0.6350660920143127</v>
+        <v>0.5785096883773804</v>
       </c>
       <c r="D34">
-        <v>0.6291919350624084</v>
+        <v>0.5693089962005615</v>
       </c>
       <c r="E34">
-        <v>0.6316825747489929</v>
+        <v>0.5735536813735962</v>
       </c>
       <c r="F34">
-        <v>92808384</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.6258596088816692</v>
+        <v>0.5701943084158575</v>
       </c>
       <c r="H34">
-        <v>0.6230425387620926</v>
+        <v>0.5680731177330017</v>
       </c>
       <c r="I34">
-        <v>0.6254890104134877</v>
+        <v>0.570999127626419</v>
       </c>
       <c r="L34">
-        <v>62.48109792305934</v>
+        <v>55.26454260983249</v>
       </c>
       <c r="M34">
-        <v>57.38211114051008</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>53.07175957388535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.6316283345222473</v>
+        <v>0.5735787749290466</v>
       </c>
       <c r="C35">
-        <v>0.6386270523071289</v>
+        <v>0.5752671957015991</v>
       </c>
       <c r="D35">
-        <v>0.6305456161499023</v>
+        <v>0.5691503286361694</v>
       </c>
       <c r="E35">
-        <v>0.6331624388694763</v>
+        <v>0.5717417597770691</v>
       </c>
       <c r="F35">
-        <v>212866624</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.6265235025169245</v>
+        <v>0.5703349858123312</v>
       </c>
       <c r="H35">
-        <v>0.6236364156007767</v>
+        <v>0.5678361296653748</v>
       </c>
       <c r="I35">
-        <v>0.6251200397809347</v>
+        <v>0.5708514829476674</v>
       </c>
       <c r="L35">
-        <v>64.50933892264538</v>
+        <v>52.91812503695303</v>
       </c>
       <c r="M35">
-        <v>58.9129113661357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>51.49104167002212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.6331331729888916</v>
+        <v>0.5717246532440186</v>
       </c>
       <c r="C36">
-        <v>0.6344162225723267</v>
+        <v>0.5730790495872498</v>
       </c>
       <c r="D36">
-        <v>0.6243115663528442</v>
+        <v>0.5638295412063599</v>
       </c>
       <c r="E36">
-        <v>0.6266425848007202</v>
+        <v>0.568138599395752</v>
       </c>
       <c r="F36">
-        <v>146217088</v>
+        <v>12623488</v>
       </c>
       <c r="G36">
-        <v>0.6265343281790877</v>
+        <v>0.5701353143199149</v>
       </c>
       <c r="H36">
-        <v>0.6238305479288101</v>
+        <v>0.5676123946905136</v>
       </c>
       <c r="I36">
-        <v>0.6250119705994924</v>
+        <v>0.5705487211545308</v>
       </c>
       <c r="L36">
-        <v>50.87726951107722</v>
+        <v>48.32771289368807</v>
       </c>
       <c r="M36">
-        <v>50.33473300285829</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>48.40360893459925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.6266221404075623</v>
+        <v>0.5682647228240967</v>
       </c>
       <c r="C37">
-        <v>0.6284342408180237</v>
+        <v>0.569479763507843</v>
       </c>
       <c r="D37">
-        <v>0.6231823563575745</v>
+        <v>0.5574101209640503</v>
       </c>
       <c r="E37">
-        <v>0.6276590824127197</v>
+        <v>0.560818076133728</v>
       </c>
       <c r="F37">
-        <v>60409728</v>
+        <v>61089664</v>
       </c>
       <c r="G37">
-        <v>0.6266365785639633</v>
+        <v>0.5692882926666252</v>
       </c>
       <c r="H37">
-        <v>0.6241751253604889</v>
+        <v>0.5674141764640808</v>
       </c>
       <c r="I37">
-        <v>0.6248413304487864</v>
+        <v>0.5697013338406881</v>
       </c>
       <c r="L37">
-        <v>52.63291516069813</v>
+        <v>40.33121862778211</v>
       </c>
       <c r="M37">
-        <v>51.51995784731759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>42.78989517716064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.6276372075080872</v>
+        <v>0.5606216788291931</v>
       </c>
       <c r="C38">
-        <v>0.6290773749351501</v>
+        <v>0.5754382014274597</v>
       </c>
       <c r="D38">
-        <v>0.6254091262817383</v>
+        <v>0.5572490692138672</v>
       </c>
       <c r="E38">
-        <v>0.6254091262817383</v>
+        <v>0.5727348327636719</v>
       </c>
       <c r="F38">
-        <v>15087360</v>
+        <v>142632448</v>
       </c>
       <c r="G38">
-        <v>0.6265249919928519</v>
+        <v>0.5696016144936294</v>
       </c>
       <c r="H38">
-        <v>0.6240037024021149</v>
+        <v>0.5677182137966156</v>
       </c>
       <c r="I38">
-        <v>0.6245235999425253</v>
+        <v>0.5692097385724385</v>
       </c>
       <c r="L38">
-        <v>48.33155922353862</v>
+        <v>54.20733108967843</v>
       </c>
       <c r="M38">
-        <v>48.74696998249446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>52.45632121360931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.6253807544708252</v>
+        <v>0.57276850938797</v>
       </c>
       <c r="C39">
-        <v>0.6283878087997437</v>
+        <v>0.5758451819419861</v>
       </c>
       <c r="D39">
-        <v>0.6242341995239258</v>
+        <v>0.5658314824104309</v>
       </c>
       <c r="E39">
-        <v>0.6267765760421753</v>
+        <v>0.5665891766548157</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>272460032</v>
       </c>
       <c r="G39">
-        <v>0.6265478632700631</v>
+        <v>0.5693277565082827</v>
       </c>
       <c r="H39">
-        <v>0.6240817397832871</v>
+        <v>0.5674618989229202</v>
       </c>
       <c r="I39">
-        <v>0.6243480324745179</v>
+        <v>0.5684896131356557</v>
       </c>
       <c r="L39">
-        <v>51.06588076823078</v>
+        <v>47.76303788882107</v>
       </c>
       <c r="M39">
-        <v>50.49109574431568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>47.95611845818271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.6267908811569214</v>
+        <v>0.5666723847389221</v>
       </c>
       <c r="C40">
-        <v>0.6377695202827454</v>
+        <v>0.572249174118042</v>
       </c>
       <c r="D40">
-        <v>0.6267908811569214</v>
+        <v>0.5666723847389221</v>
       </c>
       <c r="E40">
-        <v>0.6332517266273499</v>
+        <v>0.5700095891952515</v>
       </c>
       <c r="F40">
-        <v>136895104</v>
+        <v>9795456</v>
       </c>
       <c r="G40">
-        <v>0.6271573053934528</v>
+        <v>0.5693897412980071</v>
       </c>
       <c r="H40">
-        <v>0.6246507495641709</v>
+        <v>0.5674788594245911</v>
       </c>
       <c r="I40">
-        <v>0.6246015508969625</v>
+        <v>0.5682661513487498</v>
       </c>
       <c r="L40">
-        <v>61.82727241682275</v>
+        <v>51.38194630813138</v>
       </c>
       <c r="M40">
-        <v>57.81208099182497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>50.50132339826003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.6326618790626526</v>
+        <v>0.5699615478515625</v>
       </c>
       <c r="C41">
-        <v>0.6362056136131287</v>
+        <v>0.5717142224311829</v>
       </c>
       <c r="D41">
-        <v>0.6182583570480347</v>
+        <v>0.5634469985961914</v>
       </c>
       <c r="E41">
-        <v>0.6182709932327271</v>
+        <v>0.5645056962966919</v>
       </c>
       <c r="F41">
-        <v>119822464</v>
+        <v>14694528</v>
       </c>
       <c r="G41">
-        <v>0.6263494588333869</v>
+        <v>0.5689457372069784</v>
       </c>
       <c r="H41">
-        <v>0.6245307922363281</v>
+        <v>0.5672803699970246</v>
       </c>
       <c r="I41">
-        <v>0.6241279343763987</v>
+        <v>0.5679232954978943</v>
       </c>
       <c r="L41">
-        <v>39.32055937322839</v>
+        <v>45.65606706233206</v>
       </c>
       <c r="M41">
-        <v>42.24703685497027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>46.55581326608212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.6183657050132751</v>
+        <v>0.564395010471344</v>
       </c>
       <c r="C42">
-        <v>0.6191394925117493</v>
+        <v>0.56752610206604</v>
       </c>
       <c r="D42">
-        <v>0.5387656688690186</v>
+        <v>0.5596160888671875</v>
       </c>
       <c r="E42">
-        <v>0.574521541595459</v>
+        <v>0.5635383129119873</v>
       </c>
       <c r="F42">
-        <v>1569726848</v>
+        <v>43121536</v>
       </c>
       <c r="G42">
-        <v>0.6216378299935753</v>
+        <v>0.568454153180161</v>
       </c>
       <c r="H42">
-        <v>0.6220815360546113</v>
+        <v>0.5670895397663116</v>
       </c>
       <c r="I42">
-        <v>0.6224582552909851</v>
+        <v>0.567713854710261</v>
       </c>
       <c r="L42">
-        <v>17.90569720432573</v>
+        <v>44.67172614096948</v>
       </c>
       <c r="M42">
-        <v>22.87640583287056</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>45.87737197971568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.5748281478881836</v>
+        <v>0.563703715801239</v>
       </c>
       <c r="C43">
-        <v>0.5796485543251038</v>
+        <v>0.5672922134399414</v>
       </c>
       <c r="D43">
-        <v>0.5716667771339417</v>
+        <v>0.5521169304847717</v>
       </c>
       <c r="E43">
-        <v>0.5746231079101562</v>
+        <v>0.5672922134399414</v>
       </c>
       <c r="F43">
-        <v>272028672</v>
+        <v>67400704</v>
       </c>
       <c r="G43">
-        <v>0.6173637643496281</v>
+        <v>0.5683485222946865</v>
       </c>
       <c r="H43">
-        <v>0.6196213394403458</v>
+        <v>0.5669569104909897</v>
       </c>
       <c r="I43">
-        <v>0.6208176871140798</v>
+        <v>0.5678380926450094</v>
       </c>
       <c r="L43">
-        <v>18.02230320802312</v>
+        <v>49.43127415839605</v>
       </c>
       <c r="M43">
-        <v>22.9647136156045</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>48.98416398683317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.5746734142303467</v>
+        <v>0.5668393969535828</v>
       </c>
       <c r="C44">
-        <v>0.5899097323417664</v>
+        <v>0.5796031951904297</v>
       </c>
       <c r="D44">
-        <v>0.5745346546173096</v>
+        <v>0.5639533400535583</v>
       </c>
       <c r="E44">
-        <v>0.5825332999229431</v>
+        <v>0.5796031951904297</v>
       </c>
       <c r="F44">
-        <v>156219136</v>
+        <v>157077376</v>
       </c>
       <c r="G44">
-        <v>0.6141973584926568</v>
+        <v>0.5693716743761177</v>
       </c>
       <c r="H44">
-        <v>0.6176170438528061</v>
+        <v>0.5675696343183517</v>
       </c>
       <c r="I44">
-        <v>0.6194567084312439</v>
+        <v>0.568214460213979</v>
       </c>
       <c r="L44">
-        <v>27.09534674948807</v>
+        <v>61.61420077827724</v>
       </c>
       <c r="M44">
-        <v>29.71463392591067</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>57.58346417818232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.5825768113136292</v>
+        <v>0.5795133709907532</v>
       </c>
       <c r="C45">
-        <v>0.5836222171783447</v>
+        <v>0.6125167012214661</v>
       </c>
       <c r="D45">
-        <v>0.5736010670661926</v>
+        <v>0.5690829157829285</v>
       </c>
       <c r="E45">
-        <v>0.582265317440033</v>
+        <v>0.6000040769577026</v>
       </c>
       <c r="F45">
-        <v>115320832</v>
+        <v>393959808</v>
       </c>
       <c r="G45">
-        <v>0.6112944456696909</v>
+        <v>0.5721564382471709</v>
       </c>
       <c r="H45">
-        <v>0.615681916475296</v>
+        <v>0.5691567927598953</v>
       </c>
       <c r="I45">
-        <v>0.6181560556093851</v>
+        <v>0.5689985454082489</v>
       </c>
       <c r="L45">
-        <v>26.98153271915693</v>
+        <v>73.51126129063236</v>
       </c>
       <c r="M45">
-        <v>29.61994542033635</v>
-      </c>
-      <c r="N45" t="s">
+        <v>67.39233017569933</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.5822688937187195</v>
+        <v>0.6001696586608887</v>
       </c>
       <c r="C46">
-        <v>0.5845108032226562</v>
+        <v>0.6020618081092834</v>
       </c>
       <c r="D46">
-        <v>0.5761711001396179</v>
+        <v>0.5947801470756531</v>
       </c>
       <c r="E46">
-        <v>0.5761711001396179</v>
+        <v>0.6019043922424316</v>
       </c>
       <c r="F46">
-        <v>28385024</v>
+        <v>183391232</v>
       </c>
       <c r="G46">
-        <v>0.6081014142578661</v>
+        <v>0.5748607977012855</v>
       </c>
       <c r="H46">
-        <v>0.613743343949318</v>
+        <v>0.570835679769516</v>
       </c>
       <c r="I46">
-        <v>0.6166030943393708</v>
+        <v>0.5699749151865642</v>
       </c>
       <c r="L46">
-        <v>24.36333806111833</v>
+        <v>74.34451741886605</v>
       </c>
       <c r="M46">
-        <v>27.47571206737847</v>
-      </c>
-      <c r="N46" t="s">
+        <v>68.1316038115671</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.5761424899101257</v>
+        <v>0.6020009517669678</v>
       </c>
       <c r="C47">
-        <v>0.5784071087837219</v>
+        <v>0.6057517528533936</v>
       </c>
       <c r="D47">
-        <v>0.5729554891586304</v>
+        <v>0.5878443717956543</v>
       </c>
       <c r="E47">
-        <v>0.5772214531898499</v>
+        <v>0.5966198444366455</v>
       </c>
       <c r="F47">
-        <v>38273024</v>
+        <v>118978304</v>
       </c>
       <c r="G47">
-        <v>0.6052941450698647</v>
+        <v>0.5768388928590455</v>
       </c>
       <c r="H47">
-        <v>0.6119279801845551</v>
+        <v>0.5730789691209793</v>
       </c>
       <c r="I47">
-        <v>0.6151515583197276</v>
+        <v>0.5710361619790395</v>
       </c>
       <c r="L47">
-        <v>25.7601637349809</v>
+        <v>67.68358143177203</v>
       </c>
       <c r="M47">
-        <v>28.43727281072059</v>
-      </c>
-      <c r="N47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>63.79977342853344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.5772215723991394</v>
+        <v>0.5966513752937317</v>
       </c>
       <c r="C48">
-        <v>0.587922990322113</v>
+        <v>0.6130642294883728</v>
       </c>
       <c r="D48">
-        <v>0.5767257809638977</v>
+        <v>0.5957207083702087</v>
       </c>
       <c r="E48">
-        <v>0.5862396955490112</v>
+        <v>0.6125727295875549</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>116579328</v>
       </c>
       <c r="G48">
-        <v>0.6035619223861507</v>
+        <v>0.5800874234707282</v>
       </c>
       <c r="H48">
-        <v>0.6104734897613525</v>
+        <v>0.5757274806499482</v>
       </c>
       <c r="I48">
-        <v>0.6137316286563873</v>
+        <v>0.5725667834281921</v>
       </c>
       <c r="L48">
-        <v>36.99845269725566</v>
+        <v>75.22274856718107</v>
       </c>
       <c r="M48">
-        <v>36.25227696254134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>70.0006225469096</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.5862817168235779</v>
+        <v>0.6124552488327026</v>
       </c>
       <c r="C49">
-        <v>0.5896651744842529</v>
+        <v>0.6223402619361877</v>
       </c>
       <c r="D49">
-        <v>0.5827974081039429</v>
+        <v>0.5977068543434143</v>
       </c>
       <c r="E49">
-        <v>0.5874826908111572</v>
+        <v>0.5998002886772156</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>273835264</v>
       </c>
       <c r="G49">
-        <v>0.6021001740611513</v>
+        <v>0.5818795021258634</v>
       </c>
       <c r="H49">
-        <v>0.6088487416505813</v>
+        <v>0.5778353184461593</v>
       </c>
       <c r="I49">
-        <v>0.6124738574028015</v>
+        <v>0.5735029439131419</v>
       </c>
       <c r="L49">
-        <v>38.44335415757761</v>
+        <v>62.16090044575343</v>
       </c>
       <c r="M49">
-        <v>37.26912471201773</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>60.99247521481703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.5874786972999573</v>
+        <v>0.6000866293907166</v>
       </c>
       <c r="C50">
-        <v>0.5939414501190186</v>
+        <v>0.6061646342277527</v>
       </c>
       <c r="D50">
-        <v>0.5872952342033386</v>
+        <v>0.595160186290741</v>
       </c>
       <c r="E50">
-        <v>0.5881929397583008</v>
+        <v>0.6054725646972656</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>11004160</v>
       </c>
       <c r="G50">
-        <v>0.6008358800336194</v>
+        <v>0.5840243259959909</v>
       </c>
       <c r="H50">
-        <v>0.6071577548980713</v>
+        <v>0.5800035059452057</v>
       </c>
       <c r="I50">
-        <v>0.6113512376944225</v>
+        <v>0.5746963500976563</v>
       </c>
       <c r="L50">
-        <v>39.33768790920266</v>
+        <v>65.18155319319766</v>
       </c>
       <c r="M50">
-        <v>37.87888106389219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>63.25405118585616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.5881974697113037</v>
+        <v>0.6054361462593079</v>
       </c>
       <c r="C51">
-        <v>0.5894128680229187</v>
+        <v>0.6068478226661682</v>
       </c>
       <c r="D51">
-        <v>0.5710316300392151</v>
+        <v>0.599664568901062</v>
       </c>
       <c r="E51">
-        <v>0.5767134428024292</v>
+        <v>0.602092444896698</v>
       </c>
       <c r="F51">
-        <v>90085632</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.5986429311944202</v>
+        <v>0.5856668822596915</v>
       </c>
       <c r="H51">
-        <v>0.6046852022409439</v>
+        <v>0.581792202591896</v>
       </c>
       <c r="I51">
-        <v>0.6098860144615174</v>
+        <v>0.5758169154326122</v>
       </c>
       <c r="L51">
-        <v>31.1173142289605</v>
+        <v>61.87046572520162</v>
       </c>
       <c r="M51">
-        <v>32.39757090994325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>60.98499524591346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.5767213106155396</v>
+        <v>0.6020956635475159</v>
       </c>
       <c r="C52">
-        <v>0.5787498950958252</v>
+        <v>0.6032059192657471</v>
       </c>
       <c r="D52">
-        <v>0.5736817717552185</v>
+        <v>0.5917752981185913</v>
       </c>
       <c r="E52">
-        <v>0.5747913718223572</v>
+        <v>0.5984536409378052</v>
       </c>
       <c r="F52">
-        <v>5783808</v>
+        <v>49664</v>
       </c>
       <c r="G52">
-        <v>0.5964746076151418</v>
+        <v>0.5868293148667928</v>
       </c>
       <c r="H52">
-        <v>0.6019207149744034</v>
+        <v>0.5826677918434143</v>
       </c>
       <c r="I52">
-        <v>0.608262171347936</v>
+        <v>0.5768535395463308</v>
       </c>
       <c r="L52">
-        <v>29.93884862582823</v>
+        <v>58.28471796542879</v>
       </c>
       <c r="M52">
-        <v>31.57372811469265</v>
-      </c>
-      <c r="N52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>58.55001675300493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.5747838020324707</v>
+        <v>0.5983836650848389</v>
       </c>
       <c r="C53">
-        <v>0.5794289708137512</v>
+        <v>0.6003458499908447</v>
       </c>
       <c r="D53">
-        <v>0.5698215365409851</v>
+        <v>0.5939980149269104</v>
       </c>
       <c r="E53">
-        <v>0.5698215365409851</v>
+        <v>0.5946916341781616</v>
       </c>
       <c r="F53">
-        <v>41719808</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.5940516011538548</v>
+        <v>0.5875440711678263</v>
       </c>
       <c r="H53">
-        <v>0.59867163002491</v>
+        <v>0.5835068374872208</v>
       </c>
       <c r="I53">
-        <v>0.6064619878927867</v>
+        <v>0.5776784340540568</v>
       </c>
       <c r="L53">
-        <v>26.9679499846111</v>
+        <v>54.6039864773797</v>
       </c>
       <c r="M53">
-        <v>29.48586048165165</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>56.05797597332189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.5698362588882446</v>
+        <v>0.5947097539901733</v>
       </c>
       <c r="C54">
-        <v>0.5730606317520142</v>
+        <v>0.6009122729301453</v>
       </c>
       <c r="D54">
-        <v>0.5626935362815857</v>
+        <v>0.589930534362793</v>
       </c>
       <c r="E54">
-        <v>0.5635650753974915</v>
+        <v>0.6009122729301453</v>
       </c>
       <c r="F54">
-        <v>45213568</v>
+        <v>17405440</v>
       </c>
       <c r="G54">
-        <v>0.5912800988123672</v>
+        <v>0.588759362237128</v>
       </c>
       <c r="H54">
-        <v>0.5952657550573349</v>
+        <v>0.5848747670650483</v>
       </c>
       <c r="I54">
-        <v>0.6044935166835785</v>
+        <v>0.5787972191969554</v>
       </c>
       <c r="L54">
-        <v>23.64494945869875</v>
+        <v>59.3762791387456</v>
       </c>
       <c r="M54">
-        <v>27.05994612515239</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>59.15382390403821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.5639501214027405</v>
+        <v>0.6008089184761047</v>
       </c>
       <c r="C55">
-        <v>0.570124626159668</v>
+        <v>0.6008510589599609</v>
       </c>
       <c r="D55">
-        <v>0.5584442019462585</v>
+        <v>0.5856919288635254</v>
       </c>
       <c r="E55">
-        <v>0.5683121681213379</v>
+        <v>0.5862537622451782</v>
       </c>
       <c r="F55">
-        <v>55639808</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.5891921051131827</v>
+        <v>0.588531580419678</v>
       </c>
       <c r="H55">
-        <v>0.592023241519928</v>
+        <v>0.5856003671884537</v>
       </c>
       <c r="I55">
-        <v>0.6027383267879486</v>
+        <v>0.5793969810009003</v>
       </c>
       <c r="L55">
-        <v>30.91167299553263</v>
+        <v>46.43534987591161</v>
       </c>
       <c r="M55">
-        <v>31.65461778286397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>50.18188893074734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.5683178305625916</v>
+        <v>0.5863698124885559</v>
       </c>
       <c r="C56">
-        <v>0.5766392350196838</v>
+        <v>0.5900706052780151</v>
       </c>
       <c r="D56">
-        <v>0.5683178305625916</v>
+        <v>0.5699059367179871</v>
       </c>
       <c r="E56">
-        <v>0.5764815211296082</v>
+        <v>0.5790055394172668</v>
       </c>
       <c r="F56">
-        <v>4208768</v>
+        <v>126205568</v>
       </c>
       <c r="G56">
-        <v>0.5880365974783123</v>
+        <v>0.5876655766921861</v>
       </c>
       <c r="H56">
-        <v>0.5895151883363724</v>
+        <v>0.5861437141895294</v>
       </c>
       <c r="I56">
-        <v>0.6014562924702962</v>
+        <v>0.5797529439131419</v>
       </c>
       <c r="L56">
-        <v>41.66081284254148</v>
+        <v>41.41427437650049</v>
       </c>
       <c r="M56">
-        <v>38.79939584118794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>46.43177109397688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.5765121579170227</v>
+        <v>0.5790771842002869</v>
       </c>
       <c r="C57">
-        <v>0.5765121579170227</v>
+        <v>0.5830358266830444</v>
       </c>
       <c r="D57">
-        <v>0.572426438331604</v>
+        <v>0.5614126920700073</v>
       </c>
       <c r="E57">
-        <v>0.5726132988929749</v>
+        <v>0.5706226825714111</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>168137984</v>
       </c>
       <c r="G57">
-        <v>0.5866344794250998</v>
+        <v>0.5861162226812066</v>
       </c>
       <c r="H57">
-        <v>0.5867628991603852</v>
+        <v>0.5866339445114136</v>
       </c>
       <c r="I57">
-        <v>0.6000924448172251</v>
+        <v>0.5803818980852763</v>
       </c>
       <c r="L57">
-        <v>38.47226410912375</v>
+        <v>36.30635828196532</v>
       </c>
       <c r="M57">
-        <v>36.83577421740024</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>42.47803626976756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.5726549029350281</v>
+        <v>0.5701712369918823</v>
       </c>
       <c r="C58">
-        <v>0.5739743113517761</v>
+        <v>0.5723004341125488</v>
       </c>
       <c r="D58">
-        <v>0.5593862533569336</v>
+        <v>0.5652269124984741</v>
       </c>
       <c r="E58">
-        <v>0.564782440662384</v>
+        <v>0.5720938444137573</v>
       </c>
       <c r="F58">
-        <v>31760000</v>
+        <v>3812864</v>
       </c>
       <c r="G58">
-        <v>0.5846479304466711</v>
+        <v>0.5848414610205294</v>
       </c>
       <c r="H58">
-        <v>0.5837315648794175</v>
+        <v>0.5866018950939178</v>
       </c>
       <c r="I58">
-        <v>0.5984075427055359</v>
+        <v>0.5807982762654622</v>
       </c>
       <c r="L58">
-        <v>32.76166411866558</v>
+        <v>37.82048408164344</v>
       </c>
       <c r="M58">
-        <v>33.17535330899794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>43.38909313669474</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.5647712349891663</v>
+        <v>0.5721028447151184</v>
       </c>
       <c r="C59">
-        <v>0.5676617622375488</v>
+        <v>0.576218843460083</v>
       </c>
       <c r="D59">
-        <v>0.5626458525657654</v>
+        <v>0.5716583132743835</v>
       </c>
       <c r="E59">
-        <v>0.5666540861129761</v>
+        <v>0.5755259394645691</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.5830121264163352</v>
+        <v>0.5839945954245329</v>
       </c>
       <c r="H59">
-        <v>0.5807254403829575</v>
+        <v>0.5870487332344055</v>
       </c>
       <c r="I59">
-        <v>0.5966300904750824</v>
+        <v>0.5813943564891815</v>
       </c>
       <c r="L59">
-        <v>35.34226719577633</v>
+        <v>41.47206127152423</v>
       </c>
       <c r="M59">
-        <v>34.84194136842416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>45.55554467020483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.5666497945785522</v>
+        <v>0.5755187273025513</v>
       </c>
       <c r="C60">
-        <v>0.5727750658988953</v>
+        <v>0.5768158435821533</v>
       </c>
       <c r="D60">
-        <v>0.5660699605941772</v>
+        <v>0.571419358253479</v>
       </c>
       <c r="E60">
-        <v>0.5717154741287231</v>
+        <v>0.5743976235389709</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.5819851580265523</v>
+        <v>0.5831221434349364</v>
       </c>
       <c r="H60">
-        <v>0.5776486277580262</v>
+        <v>0.5872681349515915</v>
       </c>
       <c r="I60">
-        <v>0.5949535171190897</v>
+        <v>0.5818039834499359</v>
       </c>
       <c r="L60">
-        <v>42.10251373900394</v>
+        <v>40.59044242140349</v>
       </c>
       <c r="M60">
-        <v>39.25398804910852</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>44.94656683693565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.5716976523399353</v>
+        <v>0.5744162201881409</v>
       </c>
       <c r="C61">
-        <v>0.5724620223045349</v>
+        <v>0.5763392448425293</v>
       </c>
       <c r="D61">
-        <v>0.5682774782180786</v>
+        <v>0.5724756717681885</v>
       </c>
       <c r="E61">
-        <v>0.5696703791618347</v>
+        <v>0.5742721557617188</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.5808656326752143</v>
+        <v>0.5823175991010074</v>
       </c>
       <c r="H61">
-        <v>0.5752185970544815</v>
+        <v>0.5877564579248429</v>
       </c>
       <c r="I61">
-        <v>0.5930703798929851</v>
+        <v>0.5820691049098968</v>
       </c>
       <c r="L61">
-        <v>40.19230282384956</v>
+        <v>40.48278359988547</v>
       </c>
       <c r="M61">
-        <v>38.13048860011834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>44.87472982532289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.569675624370575</v>
+        <v>0.5742721557617188</v>
       </c>
       <c r="C62">
-        <v>0.570365309715271</v>
+        <v>0.5757396221160889</v>
       </c>
       <c r="D62">
-        <v>0.566137433052063</v>
+        <v>0.5720949172973633</v>
       </c>
       <c r="E62">
-        <v>0.5684754848480225</v>
+        <v>0.5754173994064331</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.579739255600015</v>
+        <v>0.5816903082196825</v>
       </c>
       <c r="H62">
-        <v>0.5749162942171097</v>
+        <v>0.5883504122495651</v>
       </c>
       <c r="I62">
-        <v>0.5910168588161469</v>
+        <v>0.5818849563598633</v>
       </c>
       <c r="L62">
-        <v>39.02838475356288</v>
+        <v>42.0608177817032</v>
       </c>
       <c r="M62">
-        <v>37.45594422459304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>45.72740320480933</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.5685210824012756</v>
+        <v>0.5752826929092407</v>
       </c>
       <c r="C63">
-        <v>0.571511447429657</v>
+        <v>0.5774521827697754</v>
       </c>
       <c r="D63">
-        <v>0.5663949251174927</v>
+        <v>0.5746259689331055</v>
       </c>
       <c r="E63">
-        <v>0.5673549175262451</v>
+        <v>0.5750833749771118</v>
       </c>
       <c r="F63">
-        <v>8947520</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.5786134066842177</v>
+        <v>0.5810896779249033</v>
       </c>
       <c r="H63">
-        <v>0.5745528846979141</v>
+        <v>0.5887399703264237</v>
       </c>
       <c r="I63">
-        <v>0.5887685815493265</v>
+        <v>0.5817907114823659</v>
       </c>
       <c r="L63">
-        <v>37.87133737116077</v>
+        <v>41.69805522183901</v>
       </c>
       <c r="M63">
-        <v>36.79849628358913</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>45.50631343328288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.567361056804657</v>
+        <v>0.5750715136528015</v>
       </c>
       <c r="C64">
-        <v>0.5701772570610046</v>
+        <v>0.575417160987854</v>
       </c>
       <c r="D64">
-        <v>0.5668908953666687</v>
+        <v>0.5726884603500366</v>
       </c>
       <c r="E64">
-        <v>0.5699447989463806</v>
+        <v>0.5738614201545715</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.5778253514353234</v>
+        <v>0.5804325635821459</v>
       </c>
       <c r="H64">
-        <v>0.573923459649086</v>
+        <v>0.5884528815746307</v>
       </c>
       <c r="I64">
-        <v>0.5867106556892395</v>
+        <v>0.5818009694417318</v>
       </c>
       <c r="L64">
-        <v>42.3177257143657</v>
+        <v>40.26869483882451</v>
       </c>
       <c r="M64">
-        <v>39.44409358623302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>44.65570311613131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.569953978061676</v>
+        <v>0.5739101767539978</v>
       </c>
       <c r="C65">
-        <v>0.5727759003639221</v>
+        <v>0.5759495496749878</v>
       </c>
       <c r="D65">
-        <v>0.5664007663726807</v>
+        <v>0.5723382830619812</v>
       </c>
       <c r="E65">
-        <v>0.5673487186431885</v>
+        <v>0.5752537250518799</v>
       </c>
       <c r="F65">
-        <v>62538304</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.5768729302724021</v>
+        <v>0.5799617600793945</v>
       </c>
       <c r="H65">
-        <v>0.5731776297092438</v>
+        <v>0.5872153639793396</v>
       </c>
       <c r="I65">
-        <v>0.5845168650150299</v>
+        <v>0.5819180349508921</v>
       </c>
       <c r="L65">
-        <v>39.15747977088778</v>
+        <v>42.78280457879014</v>
       </c>
       <c r="M65">
-        <v>37.73876926429975</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>45.89663279504339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.5673409104347229</v>
+        <v>0.5752778649330139</v>
       </c>
       <c r="C66">
-        <v>0.5708894729614258</v>
+        <v>0.5795982480049133</v>
       </c>
       <c r="D66">
-        <v>0.5654203295707703</v>
+        <v>0.575250506401062</v>
       </c>
       <c r="E66">
-        <v>0.5682609081268311</v>
+        <v>0.5768699049949646</v>
       </c>
       <c r="F66">
-        <v>12019328</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>0.5760900191682592</v>
+        <v>0.5796806823444463</v>
       </c>
       <c r="H66">
-        <v>0.5727821201086044</v>
+        <v>0.5859636396169663</v>
       </c>
       <c r="I66">
-        <v>0.5825708091259003</v>
+        <v>0.5822090784708659</v>
       </c>
       <c r="L66">
-        <v>40.90205774065952</v>
+        <v>45.76391747681409</v>
       </c>
       <c r="M66">
-        <v>38.74095189614669</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>47.37177227991373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.5682356357574463</v>
+        <v>0.5768800973892212</v>
       </c>
       <c r="C67">
-        <v>0.5686549544334412</v>
+        <v>0.5781583189964294</v>
       </c>
       <c r="D67">
-        <v>0.5623816847801208</v>
+        <v>0.5754013657569885</v>
       </c>
       <c r="E67">
-        <v>0.5683266520500183</v>
+        <v>0.5778921842575073</v>
       </c>
       <c r="F67">
-        <v>19092352</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.5753842585211464</v>
+        <v>0.5795180916092699</v>
       </c>
       <c r="H67">
-        <v>0.5723373800516128</v>
+        <v>0.5850272566080094</v>
       </c>
       <c r="I67">
-        <v>0.5805930614471435</v>
+        <v>0.5827782154083252</v>
       </c>
       <c r="L67">
-        <v>41.03913648011215</v>
+        <v>47.70284803838042</v>
       </c>
       <c r="M67">
-        <v>38.81739044016089</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>48.33139397797747</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.5683027505874634</v>
+        <v>0.5778635740280151</v>
       </c>
       <c r="C68">
-        <v>0.5683027505874634</v>
+        <v>0.586147665977478</v>
       </c>
       <c r="D68">
-        <v>0.5484771728515625</v>
+        <v>0.5753815770149231</v>
       </c>
       <c r="E68">
-        <v>0.5517540574073792</v>
+        <v>0.5765689611434937</v>
       </c>
       <c r="F68">
-        <v>137352576</v>
+        <v>75892032</v>
       </c>
       <c r="G68">
-        <v>0.5732360584198949</v>
+        <v>0.5792499888396538</v>
       </c>
       <c r="H68">
-        <v>0.5706130981445312</v>
+        <v>0.5832270681858063</v>
       </c>
       <c r="I68">
-        <v>0.578137892484665</v>
+        <v>0.5829060196876525</v>
       </c>
       <c r="L68">
-        <v>24.7553764995366</v>
+        <v>45.34239972882952</v>
       </c>
       <c r="M68">
-        <v>28.99554639760842</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>47.13339015682855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.5517160892486572</v>
+        <v>0.5766119360923767</v>
       </c>
       <c r="C69">
-        <v>0.578541100025177</v>
+        <v>0.5920916199684143</v>
       </c>
       <c r="D69">
-        <v>0.5506752133369446</v>
+        <v>0.574469268321991</v>
       </c>
       <c r="E69">
-        <v>0.5596024990081787</v>
+        <v>0.5761593580245972</v>
       </c>
       <c r="F69">
-        <v>661404736</v>
+        <v>217792896</v>
       </c>
       <c r="G69">
-        <v>0.5719966439279206</v>
+        <v>0.5789690224019215</v>
       </c>
       <c r="H69">
-        <v>0.5692190885543823</v>
+        <v>0.5820450216531754</v>
       </c>
       <c r="I69">
-        <v>0.5758987565835317</v>
+        <v>0.5832250257333119</v>
       </c>
       <c r="L69">
-        <v>37.88615156942056</v>
+        <v>44.57430034017467</v>
       </c>
       <c r="M69">
-        <v>37.11110252331957</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>46.74711343176019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.5596283078193665</v>
+        <v>0.5761553645133972</v>
       </c>
       <c r="C70">
-        <v>0.5641767978668213</v>
+        <v>0.5884605050086975</v>
       </c>
       <c r="D70">
-        <v>0.5554941296577454</v>
+        <v>0.5761553645133972</v>
       </c>
       <c r="E70">
-        <v>0.5576435327529907</v>
+        <v>0.5856407284736633</v>
       </c>
       <c r="F70">
-        <v>165593984</v>
+        <v>77619264</v>
       </c>
       <c r="G70">
-        <v>0.5706918156392905</v>
+        <v>0.5795755411357162</v>
       </c>
       <c r="H70">
-        <v>0.5676916182041168</v>
+        <v>0.5810534298419953</v>
       </c>
       <c r="I70">
-        <v>0.5733784834543864</v>
+        <v>0.5837460637092591</v>
       </c>
       <c r="L70">
-        <v>36.11638802365293</v>
+        <v>61.54029293525672</v>
       </c>
       <c r="M70">
-        <v>36.00492998182573</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>55.78094282760395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.5576469302177429</v>
+        <v>0.585666835308075</v>
       </c>
       <c r="C71">
-        <v>0.5621088147163391</v>
+        <v>0.5868890285491943</v>
       </c>
       <c r="D71">
-        <v>0.5527498126029968</v>
+        <v>0.5766744613647461</v>
       </c>
       <c r="E71">
-        <v>0.5621088147163391</v>
+        <v>0.5784953236579895</v>
       </c>
       <c r="F71">
-        <v>40914048</v>
+        <v>103605056</v>
       </c>
       <c r="G71">
-        <v>0.5699115428281131</v>
+        <v>0.5794773395468319</v>
       </c>
       <c r="H71">
-        <v>0.5669613867998123</v>
+        <v>0.5798735737800598</v>
       </c>
       <c r="I71">
-        <v>0.5715064108371735</v>
+        <v>0.5842123846213023</v>
       </c>
       <c r="L71">
-        <v>42.95020433899366</v>
+        <v>48.85998816484376</v>
       </c>
       <c r="M71">
-        <v>40.36812007144758</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>49.03045633387019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.5621450543403625</v>
+        <v>0.5784225463867188</v>
       </c>
       <c r="C72">
-        <v>0.5692297220230103</v>
+        <v>0.5811871290206909</v>
       </c>
       <c r="D72">
-        <v>0.5621450543403625</v>
+        <v>0.5772122740745544</v>
       </c>
       <c r="E72">
-        <v>0.5663185119628906</v>
+        <v>0.5788431167602539</v>
       </c>
       <c r="F72">
-        <v>146258432</v>
+        <v>69042560</v>
       </c>
       <c r="G72">
-        <v>0.5695849036585474</v>
+        <v>0.5794196829298702</v>
       </c>
       <c r="H72">
-        <v>0.566537743806839</v>
+        <v>0.5788930475711822</v>
       </c>
       <c r="I72">
-        <v>0.5712329765160878</v>
+        <v>0.5847225447495779</v>
       </c>
       <c r="L72">
-        <v>48.76332424192967</v>
+        <v>49.43055297904588</v>
       </c>
       <c r="M72">
-        <v>44.22872073250868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>49.35174287777075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.5662993788719177</v>
+        <v>0.578818142414093</v>
       </c>
       <c r="C73">
-        <v>0.5815949440002441</v>
+        <v>0.5794516205787659</v>
       </c>
       <c r="D73">
-        <v>0.5656383037567139</v>
+        <v>0.5695816278457642</v>
       </c>
       <c r="E73">
-        <v>0.5809418559074402</v>
+        <v>0.5696430206298828</v>
       </c>
       <c r="F73">
-        <v>155672704</v>
+        <v>93954560</v>
       </c>
       <c r="G73">
-        <v>0.5706173538629922</v>
+        <v>0.5785308954480531</v>
       </c>
       <c r="H73">
-        <v>0.5670937597751617</v>
+        <v>0.5776406168937683</v>
       </c>
       <c r="I73">
-        <v>0.5714436014493306</v>
+        <v>0.5848009049892425</v>
       </c>
       <c r="L73">
-        <v>63.3553147249899</v>
+        <v>37.10938577820527</v>
       </c>
       <c r="M73">
-        <v>55.10247059173668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>41.8386972126365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.581010103225708</v>
+        <v>0.5697389841079712</v>
       </c>
       <c r="C74">
-        <v>0.5814438462257385</v>
+        <v>0.5812691450119019</v>
       </c>
       <c r="D74">
-        <v>0.5763160586357117</v>
+        <v>0.5697389841079712</v>
       </c>
       <c r="E74">
-        <v>0.5779107213020325</v>
+        <v>0.58041912317276</v>
       </c>
       <c r="F74">
-        <v>56375424</v>
+        <v>15671552</v>
       </c>
       <c r="G74">
-        <v>0.5712803872665413</v>
+        <v>0.5787025525139357</v>
       </c>
       <c r="H74">
-        <v>0.5678110420703888</v>
+        <v>0.576615959405899</v>
       </c>
       <c r="I74">
-        <v>0.5712895154953003</v>
+        <v>0.5848281025886536</v>
       </c>
       <c r="L74">
-        <v>59.40980796512356</v>
+        <v>52.65889389934356</v>
       </c>
       <c r="M74">
-        <v>52.80430522302476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>51.2081613214744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.5779644250869751</v>
+        <v>0.5804187655448914</v>
       </c>
       <c r="C75">
-        <v>0.5785096883773804</v>
+        <v>0.5809640884399414</v>
       </c>
       <c r="D75">
-        <v>0.5693089962005615</v>
+        <v>0.5751572847366333</v>
       </c>
       <c r="E75">
-        <v>0.5735536813735962</v>
+        <v>0.5759401917457581</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.5714870503671826</v>
+        <v>0.5784514288077377</v>
       </c>
       <c r="H75">
-        <v>0.5680731177330017</v>
+        <v>0.576100280880928</v>
       </c>
       <c r="I75">
-        <v>0.570999127626419</v>
+        <v>0.5840259730815888</v>
       </c>
       <c r="L75">
-        <v>53.97423790670661</v>
+        <v>47.2018768893715</v>
       </c>
       <c r="M75">
-        <v>49.60187761313689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>47.76403541876024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.5735787749290466</v>
+        <v>0.5758674740791321</v>
       </c>
       <c r="C76">
-        <v>0.5752671957015991</v>
+        <v>0.5776864290237427</v>
       </c>
       <c r="D76">
-        <v>0.5691503286361694</v>
+        <v>0.571941077709198</v>
       </c>
       <c r="E76">
-        <v>0.5717417597770691</v>
+        <v>0.5776864290237427</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4260928</v>
       </c>
       <c r="G76">
-        <v>0.5715102057680813</v>
+        <v>0.578381883372829</v>
       </c>
       <c r="H76">
-        <v>0.5678361296653748</v>
+        <v>0.5760343253612519</v>
       </c>
       <c r="I76">
-        <v>0.5708514829476674</v>
+        <v>0.5832187076409657</v>
       </c>
       <c r="L76">
-        <v>51.7587415432643</v>
+        <v>49.497384867874</v>
       </c>
       <c r="M76">
-        <v>48.29027517951932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>49.19862871536152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.5717246532440186</v>
+        <v>0.5777034163475037</v>
       </c>
       <c r="C77">
-        <v>0.5730790495872498</v>
+        <v>0.5777034163475037</v>
       </c>
       <c r="D77">
-        <v>0.5638295412063599</v>
+        <v>0.5718389749526978</v>
       </c>
       <c r="E77">
-        <v>0.568138599395752</v>
+        <v>0.5760980844497681</v>
       </c>
       <c r="F77">
-        <v>12623488</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.5712036960978696</v>
+        <v>0.5781742652889144</v>
       </c>
       <c r="H77">
-        <v>0.5676123946905136</v>
+        <v>0.5763080954551697</v>
       </c>
       <c r="I77">
-        <v>0.5705487211545308</v>
+        <v>0.5825346489747365</v>
       </c>
       <c r="L77">
-        <v>47.40552567237839</v>
+        <v>47.38908381438294</v>
       </c>
       <c r="M77">
-        <v>45.7022383981019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>47.9097581402018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.5682647228240967</v>
+        <v>0.5760347247123718</v>
       </c>
       <c r="C78">
-        <v>0.569479763507843</v>
+        <v>0.5760566592216492</v>
       </c>
       <c r="D78">
-        <v>0.5574101209640503</v>
+        <v>0.5729585289955139</v>
       </c>
       <c r="E78">
-        <v>0.560818076133728</v>
+        <v>0.5737347602844238</v>
       </c>
       <c r="F78">
-        <v>61089664</v>
+        <v>17736000</v>
       </c>
       <c r="G78">
-        <v>0.5702595488284021</v>
+        <v>0.5777706739248698</v>
       </c>
       <c r="H78">
-        <v>0.5674141764640808</v>
+        <v>0.576390141248703</v>
       </c>
       <c r="I78">
-        <v>0.5697013338406881</v>
+        <v>0.5812400499979655</v>
       </c>
       <c r="L78">
-        <v>39.7618222368687</v>
+        <v>44.23517443798827</v>
       </c>
       <c r="M78">
-        <v>40.90560230954366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>45.97963470993003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.5606216788291931</v>
+        <v>0.5737825036048889</v>
       </c>
       <c r="C79">
-        <v>0.5754382014274597</v>
+        <v>0.5774115920066833</v>
       </c>
       <c r="D79">
-        <v>0.5572490692138672</v>
+        <v>0.5676479935646057</v>
       </c>
       <c r="E79">
-        <v>0.5727348327636719</v>
+        <v>0.5752270221710205</v>
       </c>
       <c r="F79">
-        <v>142632448</v>
+        <v>20099584</v>
       </c>
       <c r="G79">
-        <v>0.5704845746406993</v>
+        <v>0.5775394328563381</v>
       </c>
       <c r="H79">
-        <v>0.5677182137966156</v>
+        <v>0.5763751953840256</v>
       </c>
       <c r="I79">
-        <v>0.5692097385724385</v>
+        <v>0.5804209411144257</v>
       </c>
       <c r="L79">
-        <v>53.49431490910128</v>
+        <v>46.75252771716673</v>
       </c>
       <c r="M79">
-        <v>50.0888715369566</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>47.42004995138175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.57276850938797</v>
+        <v>0.5752283930778503</v>
       </c>
       <c r="C80">
-        <v>0.5758451819419861</v>
+        <v>0.5779326558113098</v>
       </c>
       <c r="D80">
-        <v>0.5658314824104309</v>
+        <v>0.5738178491592407</v>
       </c>
       <c r="E80">
-        <v>0.5665891766548157</v>
+        <v>0.5779129266738892</v>
       </c>
       <c r="F80">
-        <v>272460032</v>
+        <v>19271488</v>
       </c>
       <c r="G80">
-        <v>0.5701304475510736</v>
+        <v>0.5775733868397519</v>
       </c>
       <c r="H80">
-        <v>0.5674618989229202</v>
+        <v>0.5765509605407715</v>
       </c>
       <c r="I80">
-        <v>0.5684896131356557</v>
+        <v>0.5795022865136464</v>
       </c>
       <c r="L80">
-        <v>47.24546129255276</v>
+        <v>51.21210733714128</v>
       </c>
       <c r="M80">
-        <v>46.10931613202399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>50.00406529114829</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.5666723847389221</v>
+        <v>0.5779438614845276</v>
       </c>
       <c r="C81">
-        <v>0.572249174118042</v>
+        <v>0.5796409249305725</v>
       </c>
       <c r="D81">
-        <v>0.5666723847389221</v>
+        <v>0.5760734677314758</v>
       </c>
       <c r="E81">
-        <v>0.5700095891952515</v>
+        <v>0.5760734677314758</v>
       </c>
       <c r="F81">
-        <v>9795456</v>
+        <v>13536448</v>
       </c>
       <c r="G81">
-        <v>0.570119460427817</v>
+        <v>0.5774370305571814</v>
       </c>
       <c r="H81">
-        <v>0.5674788594245911</v>
+        <v>0.5766410261392594</v>
       </c>
       <c r="I81">
-        <v>0.5682661513487498</v>
+        <v>0.5786349872748057</v>
       </c>
       <c r="L81">
-        <v>50.84095795585471</v>
+        <v>48.10781500631838</v>
       </c>
       <c r="M81">
-        <v>48.55893316621488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>48.25501775613549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.5699615478515625</v>
+        <v>0.575903058052063</v>
       </c>
       <c r="C82">
-        <v>0.5717142224311829</v>
+        <v>0.5760629773139954</v>
       </c>
       <c r="D82">
-        <v>0.5634469985961914</v>
+        <v>0.5735617876052856</v>
       </c>
       <c r="E82">
-        <v>0.5645056962966919</v>
+        <v>0.5748547911643982</v>
       </c>
       <c r="F82">
-        <v>14694528</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.5696091182340783</v>
+        <v>0.5772022815214738</v>
       </c>
       <c r="H82">
-        <v>0.5672803699970246</v>
+        <v>0.5766128957271576</v>
       </c>
       <c r="I82">
-        <v>0.5679232954978943</v>
+        <v>0.5778483589490254</v>
       </c>
       <c r="L82">
-        <v>45.25715234438537</v>
+        <v>46.02828293190555</v>
       </c>
       <c r="M82">
-        <v>45.0132415898662</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>47.08007557433085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.564395010471344</v>
+        <v>0.5748516917228699</v>
       </c>
       <c r="C83">
-        <v>0.56752610206604</v>
+        <v>0.575408935546875</v>
       </c>
       <c r="D83">
-        <v>0.5596160888671875</v>
+        <v>0.5696564912796021</v>
       </c>
       <c r="E83">
-        <v>0.5635383129119873</v>
+        <v>0.5716085433959961</v>
       </c>
       <c r="F83">
-        <v>43121536</v>
+        <v>19087488</v>
       </c>
       <c r="G83">
-        <v>0.569057226841161</v>
+        <v>0.5766937598737031</v>
       </c>
       <c r="H83">
-        <v>0.5670895397663116</v>
+        <v>0.5764391541481018</v>
       </c>
       <c r="I83">
-        <v>0.567713854710261</v>
+        <v>0.5770789225896199</v>
       </c>
       <c r="L83">
-        <v>44.29519816293847</v>
+        <v>40.74967004648255</v>
       </c>
       <c r="M83">
-        <v>44.39958686720335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>44.00633570469171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.563703715801239</v>
+        <v>0.5716591477394104</v>
       </c>
       <c r="C84">
-        <v>0.5672922134399414</v>
+        <v>0.5723076462745667</v>
       </c>
       <c r="D84">
-        <v>0.5521169304847717</v>
+        <v>0.5693656206130981</v>
       </c>
       <c r="E84">
-        <v>0.5672922134399414</v>
+        <v>0.570246160030365</v>
       </c>
       <c r="F84">
-        <v>67400704</v>
+        <v>11599680</v>
       </c>
       <c r="G84">
-        <v>0.5688967710774137</v>
+        <v>0.5761076144333996</v>
       </c>
       <c r="H84">
-        <v>0.5669569104909897</v>
+        <v>0.5762583911418915</v>
       </c>
       <c r="I84">
-        <v>0.5678380926450094</v>
+        <v>0.5760567188262939</v>
       </c>
       <c r="L84">
-        <v>49.02518049414034</v>
+        <v>38.65657658655952</v>
       </c>
       <c r="M84">
-        <v>47.39645493646621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>42.74503683538329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.5668393969535828</v>
+        <v>0.5702545046806335</v>
       </c>
       <c r="C85">
-        <v>0.5796031951904297</v>
+        <v>0.5712904930114746</v>
       </c>
       <c r="D85">
-        <v>0.5639533400535583</v>
+        <v>0.5680579543113708</v>
       </c>
       <c r="E85">
-        <v>0.5796031951904297</v>
+        <v>0.5685275793075562</v>
       </c>
       <c r="F85">
-        <v>157077376</v>
+        <v>12641728</v>
       </c>
       <c r="G85">
-        <v>0.5698700823604151</v>
+        <v>0.5754185203310502</v>
       </c>
       <c r="H85">
-        <v>0.5675696343183517</v>
+        <v>0.5759220838546752</v>
       </c>
       <c r="I85">
-        <v>0.568214460213979</v>
+        <v>0.5754658460617066</v>
       </c>
       <c r="L85">
-        <v>61.1850382988954</v>
+        <v>36.03021507786023</v>
       </c>
       <c r="M85">
-        <v>55.80884772281066</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>41.14306552750566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.5795133709907532</v>
+        <v>0.5688928961753845</v>
       </c>
       <c r="C86">
-        <v>0.6125167012214661</v>
+        <v>0.5709024667739868</v>
       </c>
       <c r="D86">
-        <v>0.5690829157829285</v>
+        <v>0.5632918477058411</v>
       </c>
       <c r="E86">
-        <v>0.6000040769577026</v>
+        <v>0.5709024667739868</v>
       </c>
       <c r="F86">
-        <v>393959808</v>
+        <v>37589056</v>
       </c>
       <c r="G86">
-        <v>0.572609536414714</v>
+        <v>0.5750079700076809</v>
       </c>
       <c r="H86">
-        <v>0.5691567927598953</v>
+        <v>0.5756237119436264</v>
       </c>
       <c r="I86">
-        <v>0.5689985454082489</v>
+        <v>0.5751957436402638</v>
       </c>
       <c r="L86">
-        <v>73.13313191078974</v>
+        <v>42.14139022143895</v>
       </c>
       <c r="M86">
-        <v>65.62055047184323</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>44.25230203885772</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.6001696586608887</v>
+        <v>0.5709143280982971</v>
       </c>
       <c r="C87">
-        <v>0.6020618081092834</v>
+        <v>0.5721563696861267</v>
       </c>
       <c r="D87">
-        <v>0.5947801470756531</v>
+        <v>0.5671287775039673</v>
       </c>
       <c r="E87">
-        <v>0.6019043922424316</v>
+        <v>0.5679380297660828</v>
       </c>
       <c r="F87">
-        <v>183391232</v>
+        <v>12909952</v>
       </c>
       <c r="G87">
-        <v>0.5752727051263247</v>
+        <v>0.5743652481675355</v>
       </c>
       <c r="H87">
-        <v>0.570835679769516</v>
+        <v>0.5751260042190551</v>
       </c>
       <c r="I87">
-        <v>0.5699749151865642</v>
+        <v>0.5751062552134196</v>
       </c>
       <c r="L87">
-        <v>73.97270354756134</v>
+        <v>37.15669478277074</v>
       </c>
       <c r="M87">
-        <v>66.36958643644293</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>41.3181610468116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.6020009517669678</v>
+        <v>0.5679810047149658</v>
       </c>
       <c r="C88">
-        <v>0.6057517528533936</v>
+        <v>0.5680184960365295</v>
       </c>
       <c r="D88">
-        <v>0.5878443717956543</v>
+        <v>0.5631344318389893</v>
       </c>
       <c r="E88">
-        <v>0.5966198444366455</v>
+        <v>0.5657778382301331</v>
       </c>
       <c r="F88">
-        <v>118978304</v>
+        <v>16332928</v>
       </c>
       <c r="G88">
-        <v>0.5772133541545357</v>
+        <v>0.5735845745368625</v>
       </c>
       <c r="H88">
-        <v>0.5730789691209793</v>
+        <v>0.5745864480733871</v>
       </c>
       <c r="I88">
-        <v>0.5710361619790395</v>
+        <v>0.5748957216739654</v>
       </c>
       <c r="L88">
-        <v>67.38493653788537</v>
+        <v>33.8721506738554</v>
       </c>
       <c r="M88">
-        <v>62.30432218883279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>39.27458218606445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.5966513752937317</v>
+        <v>0.5657778382301331</v>
       </c>
       <c r="C89">
-        <v>0.6130642294883728</v>
+        <v>0.5678392052650452</v>
       </c>
       <c r="D89">
-        <v>0.5957207083702087</v>
+        <v>0.5647041797637939</v>
       </c>
       <c r="E89">
-        <v>0.6125727295875549</v>
+        <v>0.5678392052650452</v>
       </c>
       <c r="F89">
-        <v>116579328</v>
+        <v>12402304</v>
       </c>
       <c r="G89">
-        <v>0.5804278428302647</v>
+        <v>0.5730622682394245</v>
       </c>
       <c r="H89">
-        <v>0.5757274806499482</v>
+        <v>0.5741704404354095</v>
       </c>
       <c r="I89">
-        <v>0.5725667834281921</v>
+        <v>0.574639497200648</v>
       </c>
       <c r="L89">
-        <v>74.95864380745307</v>
+        <v>39.60360250875576</v>
       </c>
       <c r="M89">
-        <v>68.56413293871859</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>42.21180760140442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.6124552488327026</v>
+        <v>0.5678502321243286</v>
       </c>
       <c r="C90">
-        <v>0.6223402619361877</v>
+        <v>0.5683571696281433</v>
       </c>
       <c r="D90">
-        <v>0.5977068543434143</v>
+        <v>0.5619989633560181</v>
       </c>
       <c r="E90">
-        <v>0.5998002886772156</v>
+        <v>0.5625380277633667</v>
       </c>
       <c r="F90">
-        <v>273835264</v>
+        <v>12891072</v>
       </c>
       <c r="G90">
-        <v>0.5821889742708967</v>
+        <v>0.5721055191052374</v>
       </c>
       <c r="H90">
-        <v>0.5778353184461593</v>
+        <v>0.5730153053998948</v>
       </c>
       <c r="I90">
-        <v>0.5735029439131419</v>
+        <v>0.5742441773414612</v>
       </c>
       <c r="L90">
-        <v>61.9923570368852</v>
+        <v>31.66375433220987</v>
       </c>
       <c r="M90">
-        <v>59.97655813600898</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>37.22519682246914</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.6000866293907166</v>
+        <v>0.5625278353691101</v>
       </c>
       <c r="C91">
-        <v>0.6061646342277527</v>
+        <v>0.5635710954666138</v>
       </c>
       <c r="D91">
-        <v>0.595160186290741</v>
+        <v>0.559175968170166</v>
       </c>
       <c r="E91">
-        <v>0.6054725646972656</v>
+        <v>0.561860978603363</v>
       </c>
       <c r="F91">
-        <v>11004160</v>
+        <v>18220288</v>
       </c>
       <c r="G91">
-        <v>0.5843056643096575</v>
+        <v>0.5711741972414306</v>
       </c>
       <c r="H91">
-        <v>0.5800035059452057</v>
+        <v>0.5721835881471634</v>
       </c>
       <c r="I91">
-        <v>0.5746963500976563</v>
+        <v>0.5738304714361827</v>
       </c>
       <c r="L91">
-        <v>65.01580029073118</v>
+        <v>30.7771967550587</v>
       </c>
       <c r="M91">
-        <v>62.23854658886305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>36.6300264626319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.6054361462593079</v>
+        <v>0.5618590712547302</v>
       </c>
       <c r="C92">
-        <v>0.6068478226661682</v>
+        <v>0.5621620416641235</v>
       </c>
       <c r="D92">
-        <v>0.599664568901062</v>
+        <v>0.5467900037765503</v>
       </c>
       <c r="E92">
-        <v>0.602092444896698</v>
+        <v>0.5467900037765503</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>99524992</v>
       </c>
       <c r="G92">
-        <v>0.5859226443630248</v>
+        <v>0.5689574523809868</v>
       </c>
       <c r="H92">
-        <v>0.581792202591896</v>
+        <v>0.5705809324979783</v>
       </c>
       <c r="I92">
-        <v>0.5758169154326122</v>
+        <v>0.5728762249151865</v>
       </c>
       <c r="L92">
-        <v>61.72415307458705</v>
+        <v>18.09186996839918</v>
       </c>
       <c r="M92">
-        <v>60.06022340452289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>26.48066020999124</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.6020956635475159</v>
+        <v>0.5469434857368469</v>
       </c>
       <c r="C93">
-        <v>0.6032059192657471</v>
+        <v>0.55217045545578</v>
       </c>
       <c r="D93">
-        <v>0.5917752981185913</v>
+        <v>0.5461291074752808</v>
       </c>
       <c r="E93">
-        <v>0.5984536409378052</v>
+        <v>0.5519984364509583</v>
       </c>
       <c r="F93">
-        <v>49664</v>
+        <v>84371328</v>
       </c>
       <c r="G93">
-        <v>0.5870618258698229</v>
+        <v>0.5674157236600751</v>
       </c>
       <c r="H93">
-        <v>0.5826677918434143</v>
+        <v>0.5696987032890319</v>
       </c>
       <c r="I93">
-        <v>0.5768535395463308</v>
+        <v>0.5721067269643147</v>
       </c>
       <c r="L93">
-        <v>58.15813198581817</v>
+        <v>29.40459576790596</v>
       </c>
       <c r="M93">
-        <v>57.71822244926746</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>33.3534026311894</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.5983836650848389</v>
+        <v>0.5518695116043091</v>
       </c>
       <c r="C94">
-        <v>0.6003458499908447</v>
+        <v>0.5529952049255371</v>
       </c>
       <c r="D94">
-        <v>0.5939980149269104</v>
+        <v>0.5450791716575623</v>
       </c>
       <c r="E94">
-        <v>0.5946916341781616</v>
+        <v>0.5491967797279358</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>84601536</v>
       </c>
       <c r="G94">
-        <v>0.5877554448069445</v>
+        <v>0.5657594560298805</v>
       </c>
       <c r="H94">
-        <v>0.5835068374872208</v>
+        <v>0.5681375861167908</v>
       </c>
       <c r="I94">
-        <v>0.5776784340540568</v>
+        <v>0.5712845722834269</v>
       </c>
       <c r="L94">
-        <v>54.49621462150746</v>
+        <v>27.13653333494854</v>
       </c>
       <c r="M94">
-        <v>55.31661873439089</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>31.64000724250337</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.5947097539901733</v>
+        <v>0.5492286682128906</v>
       </c>
       <c r="C95">
-        <v>0.6009122729301453</v>
+        <v>0.551382303237915</v>
       </c>
       <c r="D95">
-        <v>0.589930534362793</v>
+        <v>0.5468489527702332</v>
       </c>
       <c r="E95">
-        <v>0.6009122729301453</v>
+        <v>0.5469117164611816</v>
       </c>
       <c r="F95">
-        <v>17405440</v>
+        <v>19913856</v>
       </c>
       <c r="G95">
-        <v>0.5889515200908719</v>
+        <v>0.5640460251599988</v>
       </c>
       <c r="H95">
-        <v>0.5848747670650483</v>
+        <v>0.566686162352562</v>
       </c>
       <c r="I95">
-        <v>0.5787972191969554</v>
+        <v>0.5703398386637369</v>
       </c>
       <c r="L95">
-        <v>59.26722165965063</v>
+        <v>25.34290669325348</v>
       </c>
       <c r="M95">
-        <v>58.39903902757122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>30.27399325001948</v>
+      </c>
+      <c r="N95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.6008089184761047</v>
+        <v>0.5468365550041199</v>
       </c>
       <c r="C96">
-        <v>0.6008510589599609</v>
+        <v>0.5506187677383423</v>
       </c>
       <c r="D96">
-        <v>0.5856919288635254</v>
+        <v>0.5458330512046814</v>
       </c>
       <c r="E96">
-        <v>0.5862537622451782</v>
+        <v>0.5495983958244324</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>20393728</v>
       </c>
       <c r="G96">
-        <v>0.588706269377627</v>
+        <v>0.562732604311311</v>
       </c>
       <c r="H96">
-        <v>0.5856003671884537</v>
+        <v>0.5652817606925964</v>
       </c>
       <c r="I96">
-        <v>0.5793969810009003</v>
+        <v>0.5694307883580526</v>
       </c>
       <c r="L96">
-        <v>46.37671696966784</v>
+        <v>31.34521913429318</v>
       </c>
       <c r="M96">
-        <v>49.69879840280189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>33.88809629194192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.5863698124885559</v>
+        <v>0.5496068596839905</v>
       </c>
       <c r="C97">
-        <v>0.5900706052780151</v>
+        <v>0.5503190755844116</v>
       </c>
       <c r="D97">
-        <v>0.5699059367179871</v>
+        <v>0.5385894179344177</v>
       </c>
       <c r="E97">
-        <v>0.5790055394172668</v>
+        <v>0.5390572547912598</v>
       </c>
       <c r="F97">
-        <v>126205568</v>
+        <v>92991488</v>
       </c>
       <c r="G97">
-        <v>0.5878243848357761</v>
+        <v>0.5605802998094881</v>
       </c>
       <c r="H97">
-        <v>0.5861437141895294</v>
+        <v>0.563429719209671</v>
       </c>
       <c r="I97">
-        <v>0.5797529439131419</v>
+        <v>0.5681362907091777</v>
       </c>
       <c r="L97">
-        <v>41.37121292260834</v>
+        <v>23.13518720589045</v>
       </c>
       <c r="M97">
-        <v>46.0458586385277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>27.7997068851837</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.5790771842002869</v>
+        <v>0.5389535427093506</v>
       </c>
       <c r="C98">
-        <v>0.5830358266830444</v>
+        <v>0.5458226203918457</v>
       </c>
       <c r="D98">
-        <v>0.5614126920700073</v>
+        <v>0.5239365696907043</v>
       </c>
       <c r="E98">
-        <v>0.5706226825714111</v>
+        <v>0.5458226203918457</v>
       </c>
       <c r="F98">
-        <v>168137984</v>
+        <v>163472128</v>
       </c>
       <c r="G98">
-        <v>0.5862605937208338</v>
+        <v>0.5592386925897024</v>
       </c>
       <c r="H98">
-        <v>0.5866339445114136</v>
+        <v>0.5620341122150421</v>
       </c>
       <c r="I98">
-        <v>0.5803818980852763</v>
+        <v>0.5671114126841227</v>
       </c>
       <c r="L98">
-        <v>36.27684444739042</v>
+        <v>35.3597357215946</v>
       </c>
       <c r="M98">
-        <v>42.18405535511384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>35.77501696978732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.5701712369918823</v>
+        <v>0.5458550453186035</v>
       </c>
       <c r="C99">
-        <v>0.5723004341125488</v>
+        <v>0.548434853553772</v>
       </c>
       <c r="D99">
-        <v>0.5652269124984741</v>
+        <v>0.5437647104263306</v>
       </c>
       <c r="E99">
-        <v>0.5720938444137573</v>
+        <v>0.5442790389060974</v>
       </c>
       <c r="F99">
-        <v>3812864</v>
+        <v>14397824</v>
       </c>
       <c r="G99">
-        <v>0.5849727074201905</v>
+        <v>0.557878724073011</v>
       </c>
       <c r="H99">
-        <v>0.5866018950939178</v>
+        <v>0.560486713051796</v>
       </c>
       <c r="I99">
-        <v>0.5807982762654622</v>
+        <v>0.5660487353801728</v>
       </c>
       <c r="L99">
-        <v>37.78928467555892</v>
+        <v>33.97288874516379</v>
       </c>
       <c r="M99">
-        <v>43.08618786413366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>34.82969179899189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.5721028447151184</v>
+        <v>0.5442441701889038</v>
       </c>
       <c r="C100">
-        <v>0.576218843460083</v>
+        <v>0.5442441701889038</v>
       </c>
       <c r="D100">
-        <v>0.5716583132743835</v>
+        <v>0.5393382906913757</v>
       </c>
       <c r="E100">
-        <v>0.5755259394645691</v>
+        <v>0.543129563331604</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.5841139103333158</v>
+        <v>0.5565378912783376</v>
       </c>
       <c r="H100">
-        <v>0.5870487332344055</v>
+        <v>0.5587475448846817</v>
       </c>
       <c r="I100">
-        <v>0.5813943564891815</v>
+        <v>0.5646316965421041</v>
       </c>
       <c r="L100">
-        <v>41.43727439050033</v>
+        <v>32.89211679149707</v>
       </c>
       <c r="M100">
-        <v>45.23314820638006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>34.10692399808521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.5755187273025513</v>
+        <v>0.5431302785873413</v>
       </c>
       <c r="C101">
-        <v>0.5768158435821533</v>
+        <v>0.5507906675338745</v>
       </c>
       <c r="D101">
-        <v>0.571419358253479</v>
+        <v>0.5431286692619324</v>
       </c>
       <c r="E101">
-        <v>0.5743976235389709</v>
+        <v>0.5495010018348694</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.5832306115338299</v>
+        <v>0.5558981740562041</v>
       </c>
       <c r="H101">
-        <v>0.5872681349515915</v>
+        <v>0.5574189215898514</v>
       </c>
       <c r="I101">
-        <v>0.5818039834499359</v>
+        <v>0.5636652191480001</v>
       </c>
       <c r="L101">
-        <v>40.5576740590728</v>
+        <v>44.00103694455704</v>
       </c>
       <c r="M101">
-        <v>44.63699566845938</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>41.36956702559603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.5744162201881409</v>
+        <v>0.5494450926780701</v>
       </c>
       <c r="C102">
-        <v>0.5763392448425293</v>
+        <v>0.5509589910507202</v>
       </c>
       <c r="D102">
-        <v>0.5724756717681885</v>
+        <v>0.544521689414978</v>
       </c>
       <c r="E102">
-        <v>0.5742721557617188</v>
+        <v>0.5490536093711853</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>16724096</v>
       </c>
       <c r="G102">
-        <v>0.5824162064636379</v>
+        <v>0.5552759409030206</v>
       </c>
       <c r="H102">
-        <v>0.5877564579248429</v>
+        <v>0.5561288625001908</v>
       </c>
       <c r="I102">
-        <v>0.5820691049098968</v>
+        <v>0.5626722355683644</v>
       </c>
       <c r="L102">
-        <v>40.45025792771831</v>
+        <v>43.43307069282494</v>
       </c>
       <c r="M102">
-        <v>44.56665656874548</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>41.02761354813161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.5742721557617188</v>
+        <v>0.549050509929657</v>
       </c>
       <c r="C103">
-        <v>0.5757396221160889</v>
+        <v>0.5502524971961975</v>
       </c>
       <c r="D103">
-        <v>0.5720949172973633</v>
+        <v>0.5475960373878479</v>
       </c>
       <c r="E103">
-        <v>0.5754173994064331</v>
+        <v>0.5479924082756042</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>9446784</v>
       </c>
       <c r="G103">
-        <v>0.5817799512766193</v>
+        <v>0.5546138015732555</v>
       </c>
       <c r="H103">
-        <v>0.5883504122495651</v>
+        <v>0.5549480557441712</v>
       </c>
       <c r="I103">
-        <v>0.5818849563598633</v>
+        <v>0.5619505484898885</v>
       </c>
       <c r="L103">
-        <v>42.02692858362759</v>
+        <v>41.98685035441392</v>
       </c>
       <c r="M103">
-        <v>45.41222279684877</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>40.17925079596634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.5752826929092407</v>
+        <v>0.5479757189750671</v>
       </c>
       <c r="C104">
-        <v>0.5774521827697754</v>
+        <v>0.548887312412262</v>
       </c>
       <c r="D104">
-        <v>0.5746259689331055</v>
+        <v>0.5460187792778015</v>
       </c>
       <c r="E104">
-        <v>0.5750833749771118</v>
+        <v>0.5467439889907837</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.5811711716130277</v>
+        <v>0.553898364065758</v>
       </c>
       <c r="H104">
-        <v>0.5887399703264237</v>
+        <v>0.5537729471921921</v>
       </c>
       <c r="I104">
-        <v>0.5817907114823659</v>
+        <v>0.5608280440171559</v>
       </c>
       <c r="L104">
-        <v>41.66496491338536</v>
+        <v>40.21464724185252</v>
       </c>
       <c r="M104">
-        <v>45.19568259914818</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>39.15354251739473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.5750715136528015</v>
+        <v>0.5467451810836792</v>
       </c>
       <c r="C105">
-        <v>0.575417160987854</v>
+        <v>0.5543860197067261</v>
       </c>
       <c r="D105">
-        <v>0.5726884603500366</v>
+        <v>0.5467451810836792</v>
       </c>
       <c r="E105">
-        <v>0.5738614201545715</v>
+        <v>0.553047239780426</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2453440</v>
       </c>
       <c r="G105">
-        <v>0.580506648753168</v>
+        <v>0.5538209891307279</v>
       </c>
       <c r="H105">
-        <v>0.5884528815746307</v>
+        <v>0.5529989302158356</v>
       </c>
       <c r="I105">
-        <v>0.5818009694417318</v>
+        <v>0.5600649456183115</v>
       </c>
       <c r="L105">
-        <v>40.23866664762639</v>
+        <v>51.77624514739375</v>
       </c>
       <c r="M105">
-        <v>44.36230565506921</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>46.56999236307193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.5739101767539978</v>
+        <v>0.5531452894210815</v>
       </c>
       <c r="C106">
-        <v>0.5759495496749878</v>
+        <v>0.5547696352005005</v>
       </c>
       <c r="D106">
-        <v>0.5723382830619812</v>
+        <v>0.5507127642631531</v>
       </c>
       <c r="E106">
-        <v>0.5752537250518799</v>
+        <v>0.5536021590232849</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>6118784</v>
       </c>
       <c r="G106">
-        <v>0.5800291102348691</v>
+        <v>0.5538010954845967</v>
       </c>
       <c r="H106">
-        <v>0.5872153639793396</v>
+        <v>0.5521339148283004</v>
       </c>
       <c r="I106">
-        <v>0.5819180349508921</v>
+        <v>0.5592621366182963</v>
       </c>
       <c r="L106">
-        <v>42.75078775358194</v>
+        <v>52.68252504441586</v>
       </c>
       <c r="M106">
-        <v>45.59331314564278</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>47.18038026541883</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.5752778649330139</v>
+        <v>0.5536456108093262</v>
       </c>
       <c r="C107">
-        <v>0.5795982480049133</v>
+        <v>0.5538567900657654</v>
       </c>
       <c r="D107">
-        <v>0.575250506401062</v>
+        <v>0.550682544708252</v>
       </c>
       <c r="E107">
-        <v>0.5768699049949646</v>
+        <v>0.5522421002388</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1973440</v>
       </c>
       <c r="G107">
-        <v>0.5797419097585141</v>
+        <v>0.5536593686440697</v>
       </c>
       <c r="H107">
-        <v>0.5859636396169663</v>
+        <v>0.5513491183519363</v>
       </c>
       <c r="I107">
-        <v>0.5822090784708659</v>
+        <v>0.5584669371445974</v>
       </c>
       <c r="L107">
-        <v>45.72991257183973</v>
+        <v>50.08710490260287</v>
       </c>
       <c r="M107">
-        <v>47.05762978502288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>45.79938278974453</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.5768800973892212</v>
+        <v>0.5522361397743225</v>
       </c>
       <c r="C108">
-        <v>0.5781583189964294</v>
+        <v>0.5541923046112061</v>
       </c>
       <c r="D108">
-        <v>0.5754013657569885</v>
+        <v>0.5513694882392883</v>
       </c>
       <c r="E108">
-        <v>0.5778921842575073</v>
+        <v>0.5519546270370483</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.5795737528947862</v>
+        <v>0.5535043921343404</v>
       </c>
       <c r="H108">
-        <v>0.5850272566080094</v>
+        <v>0.5506579577922821</v>
       </c>
       <c r="I108">
-        <v>0.5827782154083252</v>
+        <v>0.5577409327030182</v>
       </c>
       <c r="L108">
-        <v>47.66776554412698</v>
+        <v>49.50714076208214</v>
       </c>
       <c r="M108">
-        <v>48.0107782554516</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>45.49625103821168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.5778635740280151</v>
+        <v>0.5519804954528809</v>
       </c>
       <c r="C109">
-        <v>0.586147665977478</v>
+        <v>0.5545461177825928</v>
       </c>
       <c r="D109">
-        <v>0.5753815770149231</v>
+        <v>0.5507792234420776</v>
       </c>
       <c r="E109">
-        <v>0.5765689611434937</v>
+        <v>0.5514159798622131</v>
       </c>
       <c r="F109">
-        <v>75892032</v>
+        <v>539456</v>
       </c>
       <c r="G109">
-        <v>0.579300590008305</v>
+        <v>0.5533145364732379</v>
       </c>
       <c r="H109">
-        <v>0.5832270681858063</v>
+        <v>0.5498367965221405</v>
       </c>
       <c r="I109">
-        <v>0.5829060196876525</v>
+        <v>0.5569472312927246</v>
       </c>
       <c r="L109">
-        <v>45.31170340147726</v>
+        <v>48.32755484941005</v>
       </c>
       <c r="M109">
-        <v>46.83539480621229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>44.89662947025377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.5766119360923767</v>
+        <v>0.5514121651649475</v>
       </c>
       <c r="C110">
-        <v>0.5920916199684143</v>
+        <v>0.5523389577865601</v>
       </c>
       <c r="D110">
-        <v>0.574469268321991</v>
+        <v>0.5503240823745728</v>
       </c>
       <c r="E110">
-        <v>0.5761593580245972</v>
+        <v>0.5506910681724548</v>
       </c>
       <c r="F110">
-        <v>217792896</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0.5790150234643316</v>
+        <v>0.5530760393549849</v>
       </c>
       <c r="H110">
-        <v>0.5820450216531754</v>
+        <v>0.5492444485425949</v>
       </c>
       <c r="I110">
-        <v>0.5832250257333119</v>
+        <v>0.5560398360093435</v>
       </c>
       <c r="L110">
-        <v>44.54497185171948</v>
+        <v>46.6448846803922</v>
       </c>
       <c r="M110">
-        <v>46.45625456879051</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>44.05511160560687</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.5761553645133972</v>
+        <v>0.5507160425186157</v>
       </c>
       <c r="C111">
-        <v>0.5884605050086975</v>
+        <v>0.5512465834617615</v>
       </c>
       <c r="D111">
-        <v>0.5761553645133972</v>
+        <v>0.5462311506271362</v>
       </c>
       <c r="E111">
-        <v>0.5856407284736633</v>
+        <v>0.5462311506271362</v>
       </c>
       <c r="F111">
-        <v>77619264</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.5796173602833619</v>
+        <v>0.5524537767433623</v>
       </c>
       <c r="H111">
-        <v>0.5810534298419953</v>
+        <v>0.5484629571437836</v>
       </c>
       <c r="I111">
-        <v>0.5837460637092591</v>
+        <v>0.5550450921058655</v>
       </c>
       <c r="L111">
-        <v>61.5069270258356</v>
+        <v>37.58684372076518</v>
       </c>
       <c r="M111">
-        <v>55.44699117715341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>39.18842060948737</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.585666835308075</v>
+        <v>0.5462161302566528</v>
       </c>
       <c r="C112">
-        <v>0.5868890285491943</v>
+        <v>0.5486381649971008</v>
       </c>
       <c r="D112">
-        <v>0.5766744613647461</v>
+        <v>0.5404834151268005</v>
       </c>
       <c r="E112">
-        <v>0.5784953236579895</v>
+        <v>0.5414421558380127</v>
       </c>
       <c r="F112">
-        <v>103605056</v>
+        <v>70542656</v>
       </c>
       <c r="G112">
-        <v>0.5795153569537825</v>
+        <v>0.5514527202974213</v>
       </c>
       <c r="H112">
-        <v>0.5798735737800598</v>
+        <v>0.5481955647468567</v>
       </c>
       <c r="I112">
-        <v>0.5842123846213023</v>
+        <v>0.5539313375949859</v>
       </c>
       <c r="L112">
-        <v>48.84121323502349</v>
+        <v>30.44492075081467</v>
       </c>
       <c r="M112">
-        <v>48.79701364231354</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>34.7494015084905</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.5784225463867188</v>
+        <v>0.5414425134658813</v>
       </c>
       <c r="C113">
-        <v>0.5811871290206909</v>
+        <v>0.5414848327636719</v>
       </c>
       <c r="D113">
-        <v>0.5772122740745544</v>
+        <v>0.5359846949577332</v>
       </c>
       <c r="E113">
-        <v>0.5788431167602539</v>
+        <v>0.5365979671478271</v>
       </c>
       <c r="F113">
-        <v>69042560</v>
+        <v>75854592</v>
       </c>
       <c r="G113">
-        <v>0.5794542442089162</v>
+        <v>0.5501022881929127</v>
       </c>
       <c r="H113">
-        <v>0.5788930475711822</v>
+        <v>0.5474255412817002</v>
       </c>
       <c r="I113">
-        <v>0.5847225447495779</v>
+        <v>0.5527643183867137</v>
       </c>
       <c r="L113">
-        <v>49.41164388937226</v>
+        <v>25.03228289085843</v>
       </c>
       <c r="M113">
-        <v>49.11689915594909</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>30.93254153079661</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.578818142414093</v>
+        <v>0.5365939140319824</v>
       </c>
       <c r="C114">
-        <v>0.5794516205787659</v>
+        <v>0.5369917154312134</v>
       </c>
       <c r="D114">
-        <v>0.5695816278457642</v>
+        <v>0.5274697542190552</v>
       </c>
       <c r="E114">
-        <v>0.5696430206298828</v>
+        <v>0.5309643745422363</v>
       </c>
       <c r="F114">
-        <v>93954560</v>
+        <v>183192000</v>
       </c>
       <c r="G114">
-        <v>0.5785623147926404</v>
+        <v>0.5483624778610331</v>
       </c>
       <c r="H114">
-        <v>0.5776406168937683</v>
+        <v>0.5465139210224151</v>
       </c>
       <c r="I114">
-        <v>0.5848009049892425</v>
+        <v>0.5514549255371094</v>
       </c>
       <c r="L114">
-        <v>37.10075758397923</v>
+        <v>20.30850926307919</v>
       </c>
       <c r="M114">
-        <v>41.69609820446937</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>27.19188915960316</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.5697389841079712</v>
+        <v>0.5308926105499268</v>
       </c>
       <c r="C115">
-        <v>0.5812691450119019</v>
+        <v>0.5332898497581482</v>
       </c>
       <c r="D115">
-        <v>0.5697389841079712</v>
+        <v>0.5233298540115356</v>
       </c>
       <c r="E115">
-        <v>0.58041912317276</v>
+        <v>0.5283724665641785</v>
       </c>
       <c r="F115">
-        <v>15671552</v>
+        <v>112355264</v>
       </c>
       <c r="G115">
-        <v>0.5787311155544695</v>
+        <v>0.5465452041067735</v>
       </c>
       <c r="H115">
-        <v>0.576615959405899</v>
+        <v>0.545586958527565</v>
       </c>
       <c r="I115">
-        <v>0.5848281025886536</v>
+        <v>0.5501164217789968</v>
       </c>
       <c r="L115">
-        <v>52.64710653779315</v>
+        <v>18.5014171988654</v>
       </c>
       <c r="M115">
-        <v>51.02893053477842</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>25.65473273678349</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.5804187655448914</v>
+        <v>0.528432309627533</v>
       </c>
       <c r="C116">
-        <v>0.5809640884399414</v>
+        <v>0.5348336100578308</v>
       </c>
       <c r="D116">
-        <v>0.5751572847366333</v>
+        <v>0.5219167470932007</v>
       </c>
       <c r="E116">
-        <v>0.5759401917457581</v>
+        <v>0.5249413847923279</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>145346304</v>
       </c>
       <c r="G116">
-        <v>0.5784773952082231</v>
+        <v>0.5445812205327331</v>
       </c>
       <c r="H116">
-        <v>0.576100280880928</v>
+        <v>0.5443541079759597</v>
       </c>
       <c r="I116">
-        <v>0.5840259730815888</v>
+        <v>0.5485843857129414</v>
       </c>
       <c r="L116">
-        <v>47.19297538803301</v>
+        <v>16.33657054641162</v>
       </c>
       <c r="M116">
-        <v>47.61718271900289</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>23.74143800121383</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.5758674740791321</v>
+        <v>0.5251278877258301</v>
       </c>
       <c r="C117">
-        <v>0.5776864290237427</v>
+        <v>0.5317145586013794</v>
       </c>
       <c r="D117">
-        <v>0.571941077709198</v>
+        <v>0.5251278877258301</v>
       </c>
       <c r="E117">
-        <v>0.5776864290237427</v>
+        <v>0.5265254378318787</v>
       </c>
       <c r="F117">
-        <v>4260928</v>
+        <v>73844992</v>
       </c>
       <c r="G117">
-        <v>0.5784054891914521</v>
+        <v>0.5429397857417463</v>
       </c>
       <c r="H117">
-        <v>0.5760343253612519</v>
+        <v>0.5437275171279907</v>
       </c>
       <c r="I117">
-        <v>0.5832187076409657</v>
+        <v>0.5472039659818013</v>
       </c>
       <c r="L117">
-        <v>49.48820043535284</v>
+        <v>21.12977958467711</v>
       </c>
       <c r="M117">
-        <v>49.04752272158944</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>26.4679922325152</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.5777034163475037</v>
+        <v>0.526878833770752</v>
       </c>
       <c r="C118">
-        <v>0.5777034163475037</v>
+        <v>0.5299248695373535</v>
       </c>
       <c r="D118">
-        <v>0.5718389749526978</v>
+        <v>0.5227137804031372</v>
       </c>
       <c r="E118">
-        <v>0.5760980844497681</v>
+        <v>0.5297736525535583</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>4917376</v>
       </c>
       <c r="G118">
-        <v>0.5781957251240263</v>
+        <v>0.5417428645428201</v>
       </c>
       <c r="H118">
-        <v>0.5763080954551697</v>
+        <v>0.5429250687360764</v>
       </c>
       <c r="I118">
-        <v>0.5825346489747365</v>
+        <v>0.5460038264592488</v>
       </c>
       <c r="L118">
-        <v>47.38087948180343</v>
+        <v>30.3368478292148</v>
       </c>
       <c r="M118">
-        <v>47.76981894101142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>31.84892922785924</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.5760347247123718</v>
+        <v>0.529716968536377</v>
       </c>
       <c r="C119">
-        <v>0.5760566592216492</v>
+        <v>0.5310247540473938</v>
       </c>
       <c r="D119">
-        <v>0.5729585289955139</v>
+        <v>0.5218281149864197</v>
       </c>
       <c r="E119">
-        <v>0.5737347602844238</v>
+        <v>0.5218281149864197</v>
       </c>
       <c r="F119">
-        <v>17736000</v>
+        <v>51431936</v>
       </c>
       <c r="G119">
-        <v>0.5777901828658807</v>
+        <v>0.5399324327649655</v>
       </c>
       <c r="H119">
-        <v>0.576390141248703</v>
+        <v>0.5418025225400924</v>
       </c>
       <c r="I119">
-        <v>0.5812400499979655</v>
+        <v>0.5444701234499614</v>
       </c>
       <c r="L119">
-        <v>44.22833848575727</v>
+        <v>22.96076559273217</v>
       </c>
       <c r="M119">
-        <v>45.85569676440247</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>26.70159940686013</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.5737825036048889</v>
+        <v>0.5218654870986938</v>
       </c>
       <c r="C120">
-        <v>0.5774115920066833</v>
+        <v>0.5228410363197327</v>
       </c>
       <c r="D120">
-        <v>0.5676479935646057</v>
+        <v>0.5026435256004333</v>
       </c>
       <c r="E120">
-        <v>0.5752270221710205</v>
+        <v>0.5040100812911987</v>
       </c>
       <c r="F120">
-        <v>20099584</v>
+        <v>219734528</v>
       </c>
       <c r="G120">
-        <v>0.5775571682572571</v>
+        <v>0.5366667644491685</v>
       </c>
       <c r="H120">
-        <v>0.5763751953840256</v>
+        <v>0.5398465484380722</v>
       </c>
       <c r="I120">
-        <v>0.5804209411144257</v>
+        <v>0.542519191900889</v>
       </c>
       <c r="L120">
-        <v>46.74537341620384</v>
+        <v>14.2312847242485</v>
       </c>
       <c r="M120">
-        <v>47.29184834703921</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>19.20551718019453</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.5752283930778503</v>
+        <v>0.5040526986122131</v>
       </c>
       <c r="C121">
-        <v>0.5779326558113098</v>
+        <v>0.5115483999252319</v>
       </c>
       <c r="D121">
-        <v>0.5738178491592407</v>
+        <v>0.4975452125072479</v>
       </c>
       <c r="E121">
-        <v>0.5779129266738892</v>
+        <v>0.5097922086715698</v>
       </c>
       <c r="F121">
-        <v>19271488</v>
+        <v>116400896</v>
       </c>
       <c r="G121">
-        <v>0.5775895099314964</v>
+        <v>0.5342236230148413</v>
       </c>
       <c r="H121">
-        <v>0.5765509605407715</v>
+        <v>0.5378611087799072</v>
       </c>
       <c r="I121">
-        <v>0.5795022865136464</v>
+        <v>0.5407835662364959</v>
       </c>
       <c r="L121">
-        <v>51.20453456313179</v>
+        <v>24.68485769523055</v>
       </c>
       <c r="M121">
-        <v>49.86924895553444</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>26.42399810000353</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.5779438614845276</v>
+        <v>0.5098393559455872</v>
       </c>
       <c r="C122">
-        <v>0.5796409249305725</v>
+        <v>0.5126063823699951</v>
       </c>
       <c r="D122">
-        <v>0.5760734677314758</v>
+        <v>0.5069970488548279</v>
       </c>
       <c r="E122">
-        <v>0.5760734677314758</v>
+        <v>0.5081593990325928</v>
       </c>
       <c r="F122">
-        <v>13536448</v>
+        <v>18831488</v>
       </c>
       <c r="G122">
-        <v>0.5774516879133127</v>
+        <v>0.5318541481073641</v>
       </c>
       <c r="H122">
-        <v>0.5766410261392594</v>
+        <v>0.5358163982629776</v>
       </c>
       <c r="I122">
-        <v>0.5786349872748057</v>
+        <v>0.5394958794116974</v>
       </c>
       <c r="L122">
-        <v>48.10136653603478</v>
+        <v>23.76468705338302</v>
       </c>
       <c r="M122">
-        <v>48.13331141411458</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>25.72503748044453</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.575903058052063</v>
+        <v>0.5081048607826233</v>
       </c>
       <c r="C123">
-        <v>0.5760629773139954</v>
+        <v>0.5188096761703491</v>
       </c>
       <c r="D123">
-        <v>0.5735617876052856</v>
+        <v>0.5069274306297302</v>
       </c>
       <c r="E123">
-        <v>0.5748547911643982</v>
+        <v>0.5177783370018005</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>22840064</v>
       </c>
       <c r="G123">
-        <v>0.577215606390684</v>
+        <v>0.5305745289159493</v>
       </c>
       <c r="H123">
-        <v>0.5766128957271576</v>
+        <v>0.5343056946992875</v>
       </c>
       <c r="I123">
-        <v>0.5778483589490254</v>
+        <v>0.5383552094300588</v>
       </c>
       <c r="L123">
-        <v>46.02253960899574</v>
+        <v>38.86739261094097</v>
       </c>
       <c r="M123">
-        <v>46.96683592782382</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>36.39834130363979</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.5748516917228699</v>
+        <v>0.5177526473999023</v>
       </c>
       <c r="C124">
-        <v>0.575408935546875</v>
+        <v>0.5183976292610168</v>
       </c>
       <c r="D124">
-        <v>0.5696564912796021</v>
+        <v>0.5130015015602112</v>
       </c>
       <c r="E124">
-        <v>0.5716085433959961</v>
+        <v>0.5142852663993835</v>
       </c>
       <c r="F124">
-        <v>19087488</v>
+        <v>8816256</v>
       </c>
       <c r="G124">
-        <v>0.576705873391167</v>
+        <v>0.5290936868689887</v>
       </c>
       <c r="H124">
-        <v>0.5764391541481018</v>
+        <v>0.5326827585697174</v>
       </c>
       <c r="I124">
-        <v>0.5770789225896199</v>
+        <v>0.537191492319107</v>
       </c>
       <c r="L124">
-        <v>40.74554364840031</v>
+        <v>35.95722813073567</v>
       </c>
       <c r="M124">
-        <v>43.91395204630987</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>34.46166258723349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.5716591477394104</v>
+        <v>0.5142813324928284</v>
       </c>
       <c r="C125">
-        <v>0.5723076462745667</v>
+        <v>0.5172351598739624</v>
       </c>
       <c r="D125">
-        <v>0.5693656206130981</v>
+        <v>0.5111770033836365</v>
       </c>
       <c r="E125">
-        <v>0.570246160030365</v>
+        <v>0.5148935914039612</v>
       </c>
       <c r="F125">
-        <v>11599680</v>
+        <v>18133248</v>
       </c>
       <c r="G125">
-        <v>0.5761186267220032</v>
+        <v>0.5278027690994408</v>
       </c>
       <c r="H125">
-        <v>0.5762583911418915</v>
+        <v>0.5307750761508941</v>
       </c>
       <c r="I125">
-        <v>0.5760567188262939</v>
+        <v>0.5361242214838664</v>
       </c>
       <c r="L125">
-        <v>38.6530226102771</v>
+        <v>36.88311623357779</v>
       </c>
       <c r="M125">
-        <v>42.66066947391149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>35.10921068407702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.5702545046806335</v>
+        <v>0.5149276256561279</v>
       </c>
       <c r="C126">
-        <v>0.5712904930114746</v>
+        <v>0.5183027982711792</v>
       </c>
       <c r="D126">
-        <v>0.5680579543113708</v>
+        <v>0.5112990736961365</v>
       </c>
       <c r="E126">
-        <v>0.5685275793075562</v>
+        <v>0.516685962677002</v>
       </c>
       <c r="F126">
-        <v>12641728</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.5754285315025081</v>
+        <v>0.5267921503337646</v>
       </c>
       <c r="H126">
-        <v>0.5759220838546752</v>
+        <v>0.5289292663335801</v>
       </c>
       <c r="I126">
-        <v>0.5754658460617066</v>
+        <v>0.535027140378952</v>
       </c>
       <c r="L126">
-        <v>36.02732415004356</v>
+        <v>39.76947214094271</v>
       </c>
       <c r="M126">
-        <v>41.06842478196931</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>37.08177011675232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.5688928961753845</v>
+        <v>0.5166871547698975</v>
       </c>
       <c r="C127">
-        <v>0.5709024667739868</v>
+        <v>0.5176892876625061</v>
       </c>
       <c r="D127">
-        <v>0.5632918477058411</v>
+        <v>0.5130350589752197</v>
       </c>
       <c r="E127">
-        <v>0.5709024667739868</v>
+        <v>0.5161606669425964</v>
       </c>
       <c r="F127">
-        <v>37589056</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.5750170710726425</v>
+        <v>0.5258256518436584</v>
       </c>
       <c r="H127">
-        <v>0.5756237119436264</v>
+        <v>0.5271251946687698</v>
       </c>
       <c r="I127">
-        <v>0.5751957436402638</v>
+        <v>0.5342639207839965</v>
       </c>
       <c r="L127">
-        <v>42.13788807324035</v>
+        <v>39.17874989069463</v>
       </c>
       <c r="M127">
-        <v>44.16949420207841</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>36.72938200832754</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.5709143280982971</v>
+        <v>0.5161218643188477</v>
       </c>
       <c r="C128">
-        <v>0.5721563696861267</v>
+        <v>0.5173995494842529</v>
       </c>
       <c r="D128">
-        <v>0.5671287775039673</v>
+        <v>0.5129128098487854</v>
       </c>
       <c r="E128">
-        <v>0.5679380297660828</v>
+        <v>0.5145665407180786</v>
       </c>
       <c r="F128">
-        <v>12909952</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.5743735218629552</v>
+        <v>0.5248020962867874</v>
       </c>
       <c r="H128">
-        <v>0.5751260042190551</v>
+        <v>0.5252557903528213</v>
       </c>
       <c r="I128">
-        <v>0.5751062552134196</v>
+        <v>0.5332220514615377</v>
       </c>
       <c r="L128">
-        <v>37.15424502023585</v>
+        <v>37.28783481940879</v>
       </c>
       <c r="M128">
-        <v>41.25148347559008</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>35.62302547668428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.5679810047149658</v>
+        <v>0.5145083069801331</v>
       </c>
       <c r="C129">
-        <v>0.5680184960365295</v>
+        <v>0.5188667178153992</v>
       </c>
       <c r="D129">
-        <v>0.5631344318389893</v>
+        <v>0.5134965777397156</v>
       </c>
       <c r="E129">
-        <v>0.5657778382301331</v>
+        <v>0.5179786086082458</v>
       </c>
       <c r="F129">
-        <v>16332928</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.5735920960781532</v>
+        <v>0.5241817792251018</v>
       </c>
       <c r="H129">
-        <v>0.5745864480733871</v>
+        <v>0.523583921790123</v>
       </c>
       <c r="I129">
-        <v>0.5748957216739654</v>
+        <v>0.5323453704516093</v>
       </c>
       <c r="L129">
-        <v>33.87030078757739</v>
+        <v>43.81721817443375</v>
       </c>
       <c r="M129">
-        <v>39.21824940217858</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>39.80266105444569</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.5657778382301331</v>
+        <v>0.5179817676544189</v>
       </c>
       <c r="C130">
-        <v>0.5678392052650452</v>
+        <v>0.5179817676544189</v>
       </c>
       <c r="D130">
-        <v>0.5647041797637939</v>
+        <v>0.5143039226531982</v>
       </c>
       <c r="E130">
-        <v>0.5678392052650452</v>
+        <v>0.5151585936546326</v>
       </c>
       <c r="F130">
-        <v>12402304</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.5730691060042342</v>
+        <v>0.5233614896277864</v>
       </c>
       <c r="H130">
-        <v>0.5741704404354095</v>
+        <v>0.5218072980642319</v>
       </c>
       <c r="I130">
-        <v>0.574639497200648</v>
+        <v>0.5314130047957103</v>
       </c>
       <c r="L130">
-        <v>39.60130197525856</v>
+        <v>39.94979904199337</v>
       </c>
       <c r="M130">
-        <v>42.1485347978249</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>37.62825634710244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.5678502321243286</v>
+        <v>0.5151543617248535</v>
       </c>
       <c r="C131">
-        <v>0.5683571696281433</v>
+        <v>0.5153561234474182</v>
       </c>
       <c r="D131">
-        <v>0.5619989633560181</v>
+        <v>0.5094297528266907</v>
       </c>
       <c r="E131">
-        <v>0.5625380277633667</v>
+        <v>0.5139662623405457</v>
       </c>
       <c r="F131">
-        <v>12891072</v>
+        <v>9232704</v>
       </c>
       <c r="G131">
-        <v>0.5721117352550644</v>
+        <v>0.5225073780562191</v>
       </c>
       <c r="H131">
-        <v>0.5730153053998948</v>
+        <v>0.5201940536499023</v>
       </c>
       <c r="I131">
-        <v>0.5742441773414612</v>
+        <v>0.5302285134792328</v>
       </c>
       <c r="L131">
-        <v>31.66259168342879</v>
+        <v>38.34016027011099</v>
       </c>
       <c r="M131">
-        <v>37.18383897792083</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>36.71498086326177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.5625278353691101</v>
+        <v>0.5139791369438171</v>
       </c>
       <c r="C132">
-        <v>0.5635710954666138</v>
+        <v>0.5140283107757568</v>
       </c>
       <c r="D132">
-        <v>0.559175968170166</v>
+        <v>0.5106081962585449</v>
       </c>
       <c r="E132">
-        <v>0.561860978603363</v>
+        <v>0.5121253728866577</v>
       </c>
       <c r="F132">
-        <v>18220288</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.5711798482867279</v>
+        <v>0.5215635594044408</v>
       </c>
       <c r="H132">
-        <v>0.5721835881471634</v>
+        <v>0.5187282145023346</v>
       </c>
       <c r="I132">
-        <v>0.5738304714361827</v>
+        <v>0.5289975722630819</v>
       </c>
       <c r="L132">
-        <v>30.7761401017979</v>
+        <v>35.83247022258801</v>
       </c>
       <c r="M132">
-        <v>36.591026552918</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>35.29080155654253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.5618590712547302</v>
+        <v>0.5121331810951233</v>
       </c>
       <c r="C133">
-        <v>0.5621620416641235</v>
+        <v>0.5125804543495178</v>
       </c>
       <c r="D133">
-        <v>0.5467900037765503</v>
+        <v>0.5058143138885498</v>
       </c>
       <c r="E133">
-        <v>0.5467900037765503</v>
+        <v>0.5068150758743286</v>
       </c>
       <c r="F133">
-        <v>99524992</v>
+        <v>6697216</v>
       </c>
       <c r="G133">
-        <v>0.5689625896948934</v>
+        <v>0.5202227881744306</v>
       </c>
       <c r="H133">
-        <v>0.5705809324979783</v>
+        <v>0.5172390699386596</v>
       </c>
       <c r="I133">
-        <v>0.5728762249151865</v>
+        <v>0.5276249945163727</v>
       </c>
       <c r="L133">
-        <v>18.09186658052974</v>
+        <v>29.55845834311165</v>
       </c>
       <c r="M133">
-        <v>26.47340046395522</v>
+        <v>31.49550491483419</v>
       </c>
       <c r="N133" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.5469434857368469</v>
+        <v>0.5067604780197144</v>
       </c>
       <c r="C134">
-        <v>0.55217045545578</v>
+        <v>0.514610230922699</v>
       </c>
       <c r="D134">
-        <v>0.5461291074752808</v>
+        <v>0.5043697953224182</v>
       </c>
       <c r="E134">
-        <v>0.5519984364509583</v>
+        <v>0.5139042735099792</v>
       </c>
       <c r="F134">
-        <v>84371328</v>
+        <v>22837248</v>
       </c>
       <c r="G134">
-        <v>0.5674203939454447</v>
+        <v>0.5196483777503895</v>
       </c>
       <c r="H134">
-        <v>0.5696987032890319</v>
+        <v>0.5163860648870469</v>
       </c>
       <c r="I134">
-        <v>0.5721067269643147</v>
+        <v>0.5265303373336792</v>
       </c>
       <c r="L134">
-        <v>29.4041180110051</v>
+        <v>44.22530057786245</v>
       </c>
       <c r="M134">
-        <v>33.33395350365382</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>40.66889012795831</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.5518695116043091</v>
+        <v>0.5139392018318176</v>
       </c>
       <c r="C135">
-        <v>0.5529952049255371</v>
+        <v>0.5151642560958862</v>
       </c>
       <c r="D135">
-        <v>0.5450791716575623</v>
+        <v>0.5117205381393433</v>
       </c>
       <c r="E135">
-        <v>0.5491967797279358</v>
+        <v>0.513620913028717</v>
       </c>
       <c r="F135">
-        <v>84601536</v>
+        <v>28126528</v>
       </c>
       <c r="G135">
-        <v>0.5657637017438529</v>
+        <v>0.5191004264120557</v>
       </c>
       <c r="H135">
-        <v>0.5681375861167908</v>
+        <v>0.5156484872102738</v>
       </c>
       <c r="I135">
-        <v>0.5712845722834269</v>
+        <v>0.5252161264419556</v>
       </c>
       <c r="L135">
-        <v>27.13618028368227</v>
+        <v>43.81507190038263</v>
       </c>
       <c r="M135">
-        <v>31.6245986929597</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>40.43581088497562</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.5492286682128906</v>
+        <v>0.5135818719863892</v>
       </c>
       <c r="C136">
-        <v>0.551382303237915</v>
+        <v>0.5135818719863892</v>
       </c>
       <c r="D136">
-        <v>0.5468489527702332</v>
+        <v>0.5089545249938965</v>
       </c>
       <c r="E136">
-        <v>0.5469117164611816</v>
+        <v>0.5129797458648682</v>
       </c>
       <c r="F136">
-        <v>19913856</v>
+        <v>35071104</v>
       </c>
       <c r="G136">
-        <v>0.5640498848999737</v>
+        <v>0.5185440009077659</v>
       </c>
       <c r="H136">
-        <v>0.566686162352562</v>
+        <v>0.5150504052639008</v>
       </c>
       <c r="I136">
-        <v>0.5703398386637369</v>
+        <v>0.5238620460033416</v>
       </c>
       <c r="L136">
-        <v>25.34264186285245</v>
+        <v>42.80435916772218</v>
       </c>
       <c r="M136">
-        <v>30.2615704757775</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>39.87888050210947</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.5468365550041199</v>
+        <v>0.5129811763763428</v>
       </c>
       <c r="C137">
-        <v>0.5506187677383423</v>
+        <v>0.5146520733833313</v>
       </c>
       <c r="D137">
-        <v>0.5458330512046814</v>
+        <v>0.5102934241294861</v>
       </c>
       <c r="E137">
-        <v>0.5495983958244324</v>
+        <v>0.5117841958999634</v>
       </c>
       <c r="F137">
-        <v>20393728</v>
+        <v>8775104</v>
       </c>
       <c r="G137">
-        <v>0.5627361131658336</v>
+        <v>0.5179294731797839</v>
       </c>
       <c r="H137">
-        <v>0.5652817606925964</v>
+        <v>0.514313343167305</v>
       </c>
       <c r="I137">
-        <v>0.5694307883580526</v>
+        <v>0.5225134491920471</v>
       </c>
       <c r="L137">
-        <v>31.34477591239178</v>
+        <v>40.82867085406468</v>
       </c>
       <c r="M137">
-        <v>33.87049176764489</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>38.80560707229026</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.5496068596839905</v>
+        <v>0.5117359757423401</v>
       </c>
       <c r="C138">
-        <v>0.5503190755844116</v>
+        <v>0.5217233300209045</v>
       </c>
       <c r="D138">
-        <v>0.5385894179344177</v>
+        <v>0.5112245678901672</v>
       </c>
       <c r="E138">
-        <v>0.5390572547912598</v>
+        <v>0.5211457014083862</v>
       </c>
       <c r="F138">
-        <v>92991488</v>
+        <v>55427264</v>
       </c>
       <c r="G138">
-        <v>0.5605834896772359</v>
+        <v>0.5182218575642022</v>
       </c>
       <c r="H138">
-        <v>0.563429719209671</v>
+        <v>0.5138819456100464</v>
       </c>
       <c r="I138">
-        <v>0.5681362907091777</v>
+        <v>0.5214864850044251</v>
       </c>
       <c r="L138">
-        <v>23.1350616626435</v>
+        <v>57.93289965699467</v>
       </c>
       <c r="M138">
-        <v>27.7933127497347</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>50.12478422568041</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.5389535427093506</v>
+        <v>0.5211511850357056</v>
       </c>
       <c r="C139">
-        <v>0.5458226203918457</v>
+        <v>0.5212403535842896</v>
       </c>
       <c r="D139">
-        <v>0.5239365696907043</v>
+        <v>0.5175036787986755</v>
       </c>
       <c r="E139">
-        <v>0.5458226203918457</v>
+        <v>0.520970344543457</v>
       </c>
       <c r="F139">
-        <v>163472128</v>
+        <v>23094848</v>
       </c>
       <c r="G139">
-        <v>0.5592415924694731</v>
+        <v>0.5184717200168617</v>
       </c>
       <c r="H139">
-        <v>0.5620341122150421</v>
+        <v>0.5138390570878982</v>
       </c>
       <c r="I139">
-        <v>0.5671114126841227</v>
+        <v>0.5204716304937999</v>
       </c>
       <c r="L139">
-        <v>35.35937771630263</v>
+        <v>57.58214005237512</v>
       </c>
       <c r="M139">
-        <v>35.75994486667631</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>49.93844683236293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.5458550453186035</v>
+        <v>0.5209819674491882</v>
       </c>
       <c r="C140">
-        <v>0.548434853553772</v>
+        <v>0.5352250933647156</v>
       </c>
       <c r="D140">
-        <v>0.5437647104263306</v>
+        <v>0.5209819674491882</v>
       </c>
       <c r="E140">
-        <v>0.5442790389060974</v>
+        <v>0.5324879884719849</v>
       </c>
       <c r="F140">
-        <v>14397824</v>
+        <v>108954624</v>
       </c>
       <c r="G140">
-        <v>0.557881360327348</v>
+        <v>0.5197459262400547</v>
       </c>
       <c r="H140">
-        <v>0.560486713051796</v>
+        <v>0.5152629524469375</v>
       </c>
       <c r="I140">
-        <v>0.5660487353801728</v>
+        <v>0.5198648611704508</v>
       </c>
       <c r="L140">
-        <v>33.97257229515553</v>
+        <v>70.69337314308632</v>
       </c>
       <c r="M140">
-        <v>34.81610038404552</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>60.36141101188497</v>
+      </c>
+      <c r="O140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.5442441701889038</v>
+        <v>0.5325120091438293</v>
       </c>
       <c r="C141">
-        <v>0.5442441701889038</v>
+        <v>0.5339702367782593</v>
       </c>
       <c r="D141">
-        <v>0.5393382906913757</v>
+        <v>0.5296971797943115</v>
       </c>
       <c r="E141">
-        <v>0.543129563331604</v>
+        <v>0.5320903062820435</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>40753280</v>
       </c>
       <c r="G141">
-        <v>0.5565402878731894</v>
+        <v>0.5208681426075081</v>
       </c>
       <c r="H141">
-        <v>0.5587475448846817</v>
+        <v>0.5163778573274612</v>
       </c>
       <c r="I141">
-        <v>0.5646316965421041</v>
+        <v>0.5193934996922811</v>
       </c>
       <c r="L141">
-        <v>32.89183116820149</v>
+        <v>69.85465668903325</v>
       </c>
       <c r="M141">
-        <v>34.09442508270717</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>59.89769275307783</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.5431302785873413</v>
+        <v>0.5321901440620422</v>
       </c>
       <c r="C142">
-        <v>0.5507906675338745</v>
+        <v>0.5341115593910217</v>
       </c>
       <c r="D142">
-        <v>0.5431286692619324</v>
+        <v>0.5302520394325256</v>
       </c>
       <c r="E142">
-        <v>0.5495010018348694</v>
+        <v>0.5325798988342285</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>9075712</v>
       </c>
       <c r="G142">
-        <v>0.5559003527787967</v>
+        <v>0.5219328477190281</v>
       </c>
       <c r="H142">
-        <v>0.5574189215898514</v>
+        <v>0.517598882317543</v>
       </c>
       <c r="I142">
-        <v>0.5636652191480001</v>
+        <v>0.5190980911254883</v>
       </c>
       <c r="L142">
-        <v>44.00062054150253</v>
+        <v>70.34199392051505</v>
       </c>
       <c r="M142">
-        <v>41.35119443680212</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>60.30203249479064</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.5494450926780701</v>
+        <v>0.532563328742981</v>
       </c>
       <c r="C143">
-        <v>0.5509589910507202</v>
+        <v>0.5343186259269714</v>
       </c>
       <c r="D143">
-        <v>0.544521689414978</v>
+        <v>0.5282722115516663</v>
       </c>
       <c r="E143">
-        <v>0.5490536093711853</v>
+        <v>0.5284049510955811</v>
       </c>
       <c r="F143">
-        <v>16724096</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0.5552779215599228</v>
+        <v>0.5225212207532602</v>
       </c>
       <c r="H143">
-        <v>0.5561288625001908</v>
+        <v>0.5181302130222321</v>
       </c>
       <c r="I143">
-        <v>0.5626722355683644</v>
+        <v>0.5188249905904134</v>
       </c>
       <c r="L143">
-        <v>43.43266865082612</v>
+        <v>60.89752083063015</v>
       </c>
       <c r="M143">
-        <v>41.00973120877796</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>55.19167192169555</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.549050509929657</v>
+        <v>0.5284309983253479</v>
       </c>
       <c r="C144">
-        <v>0.5502524971961975</v>
+        <v>0.5299330353736877</v>
       </c>
       <c r="D144">
-        <v>0.5475960373878479</v>
+        <v>0.527080237865448</v>
       </c>
       <c r="E144">
-        <v>0.5479924082756042</v>
+        <v>0.5297542214393616</v>
       </c>
       <c r="F144">
-        <v>9446784</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0.5546156021704394</v>
+        <v>0.5231787662701785</v>
       </c>
       <c r="H144">
-        <v>0.5549480557441712</v>
+        <v>0.518903660774231</v>
       </c>
       <c r="I144">
-        <v>0.5619505484898885</v>
+        <v>0.5187846521536509</v>
       </c>
       <c r="L144">
-        <v>41.98648381906975</v>
+        <v>62.71750847865163</v>
       </c>
       <c r="M144">
-        <v>40.16256039861306</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>56.4754400725562</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.5479757189750671</v>
+        <v>0.5297532081604004</v>
       </c>
       <c r="C145">
-        <v>0.548887312412262</v>
+        <v>0.5316478610038757</v>
       </c>
       <c r="D145">
-        <v>0.5460187792778015</v>
+        <v>0.5293566584587097</v>
       </c>
       <c r="E145">
-        <v>0.5467439889907837</v>
+        <v>0.5300650000572205</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.5539000009722888</v>
+        <v>0.5238047875235459</v>
       </c>
       <c r="H145">
-        <v>0.5537729471921921</v>
+        <v>0.5196622312068939</v>
       </c>
       <c r="I145">
-        <v>0.5608280440171559</v>
+        <v>0.5188410699367523</v>
       </c>
       <c r="L145">
-        <v>40.21432213879392</v>
+        <v>63.16179919291039</v>
       </c>
       <c r="M145">
-        <v>39.13824690973178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>56.78257105117395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.5467451810836792</v>
+        <v>0.5300616025924683</v>
       </c>
       <c r="C146">
-        <v>0.5543860197067261</v>
+        <v>0.5309386253356934</v>
       </c>
       <c r="D146">
-        <v>0.5467451810836792</v>
+        <v>0.5288140773773193</v>
       </c>
       <c r="E146">
-        <v>0.553047239780426</v>
+        <v>0.5301068425178528</v>
       </c>
       <c r="F146">
-        <v>2453440</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.5538224772275739</v>
+        <v>0.5243777016139374</v>
       </c>
       <c r="H146">
-        <v>0.5529989302158356</v>
+        <v>0.5203332751989365</v>
       </c>
       <c r="I146">
-        <v>0.5600649456183115</v>
+        <v>0.5190132518609365</v>
       </c>
       <c r="L146">
-        <v>51.77584629717446</v>
+        <v>63.2281729078518</v>
       </c>
       <c r="M146">
-        <v>46.55040570279419</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>56.82674383889806</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.5531452894210815</v>
+        <v>0.5301027297973633</v>
       </c>
       <c r="C147">
-        <v>0.5547696352005005</v>
+        <v>0.5318980813026428</v>
       </c>
       <c r="D147">
-        <v>0.5507127642631531</v>
+        <v>0.5299488306045532</v>
       </c>
       <c r="E147">
-        <v>0.5536021590232849</v>
+        <v>0.5302701592445374</v>
       </c>
       <c r="F147">
-        <v>6118784</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>0.5538024482999113</v>
+        <v>0.5249133795803556</v>
       </c>
       <c r="H147">
-        <v>0.5521339148283004</v>
+        <v>0.5210387498140335</v>
       </c>
       <c r="I147">
-        <v>0.5592621366182963</v>
+        <v>0.5191380759080251</v>
       </c>
       <c r="L147">
-        <v>52.68212318207598</v>
+        <v>63.51681286994124</v>
       </c>
       <c r="M147">
-        <v>47.16051648810632</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>57.01143536087586</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.5536456108093262</v>
+        <v>0.530274510383606</v>
       </c>
       <c r="C148">
-        <v>0.5538567900657654</v>
+        <v>0.5329092741012573</v>
       </c>
       <c r="D148">
-        <v>0.550682544708252</v>
+        <v>0.5294626951217651</v>
       </c>
       <c r="E148">
-        <v>0.5522421002388</v>
+        <v>0.5329092741012573</v>
       </c>
       <c r="F148">
-        <v>1973440</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0.553660598476174</v>
+        <v>0.5256402790822556</v>
       </c>
       <c r="H148">
-        <v>0.5513491183519363</v>
+        <v>0.5219558864831925</v>
       </c>
       <c r="I148">
-        <v>0.5584669371445974</v>
+        <v>0.5192425966262817</v>
       </c>
       <c r="L148">
-        <v>50.08675144760709</v>
+        <v>68.07279762034628</v>
       </c>
       <c r="M148">
-        <v>45.78119965536481</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>59.99003820685063</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.5522361397743225</v>
+        <v>0.5328949093818665</v>
       </c>
       <c r="C149">
-        <v>0.5541923046112061</v>
+        <v>0.5350540280342102</v>
       </c>
       <c r="D149">
-        <v>0.5513694882392883</v>
+        <v>0.530550479888916</v>
       </c>
       <c r="E149">
-        <v>0.5519546270370483</v>
+        <v>0.530633807182312</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>13279488</v>
       </c>
       <c r="G149">
-        <v>0.5535055101635262</v>
+        <v>0.5260942361822607</v>
       </c>
       <c r="H149">
-        <v>0.5506579577922821</v>
+        <v>0.5225886464118957</v>
       </c>
       <c r="I149">
-        <v>0.5577409327030182</v>
+        <v>0.5195361196994781</v>
       </c>
       <c r="L149">
-        <v>49.50679771874105</v>
+        <v>60.71798521360174</v>
       </c>
       <c r="M149">
-        <v>45.47842794304468</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>56.36379600483486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.5519804954528809</v>
+        <v>0.530627965927124</v>
       </c>
       <c r="C150">
-        <v>0.5545461177825928</v>
+        <v>0.5330429673194885</v>
       </c>
       <c r="D150">
-        <v>0.5507792234420776</v>
+        <v>0.5302332639694214</v>
       </c>
       <c r="E150">
-        <v>0.5514159798622131</v>
+        <v>0.5303235054016113</v>
       </c>
       <c r="F150">
-        <v>539456</v>
+        <v>6029696</v>
       </c>
       <c r="G150">
-        <v>0.5533155528634068</v>
+        <v>0.5264787152022017</v>
       </c>
       <c r="H150">
-        <v>0.5498367965221405</v>
+        <v>0.5233468919992447</v>
       </c>
       <c r="I150">
-        <v>0.5569472312927246</v>
+        <v>0.5204132338364919</v>
       </c>
       <c r="L150">
-        <v>48.3272325255009</v>
+        <v>59.72796966176476</v>
       </c>
       <c r="M150">
-        <v>44.87950916416467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>55.8678458607498</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.5514121651649475</v>
+        <v>0.5303320288658142</v>
       </c>
       <c r="C151">
-        <v>0.5523389577865601</v>
+        <v>0.5310916900634766</v>
       </c>
       <c r="D151">
-        <v>0.5503240823745728</v>
+        <v>0.5287660360336304</v>
       </c>
       <c r="E151">
-        <v>0.5506910681724548</v>
+        <v>0.5295113921165466</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>16202016</v>
       </c>
       <c r="G151">
-        <v>0.5530769633460475</v>
+        <v>0.5267544131035058</v>
       </c>
       <c r="H151">
-        <v>0.5492444485425949</v>
+        <v>0.5241241484880448</v>
       </c>
       <c r="I151">
-        <v>0.5560398360093435</v>
+        <v>0.5210705399513245</v>
       </c>
       <c r="J151">
-        <v>0.5858777149518331</v>
+        <v>0.5577973318099976</v>
       </c>
       <c r="L151">
-        <v>46.64459085265582</v>
+        <v>56.99192693348991</v>
       </c>
       <c r="M151">
-        <v>44.03895654278936</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>54.51584318681307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.5507160425186157</v>
+        <v>0.5294962525367737</v>
       </c>
       <c r="C152">
-        <v>0.5512465834617615</v>
+        <v>0.5303094983100891</v>
       </c>
       <c r="D152">
-        <v>0.5462311506271362</v>
+        <v>0.5223055481910706</v>
       </c>
       <c r="E152">
-        <v>0.5462311506271362</v>
+        <v>0.523741602897644</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>35722144</v>
       </c>
       <c r="G152">
-        <v>0.5524546167352373</v>
+        <v>0.5264805212666093</v>
       </c>
       <c r="H152">
-        <v>0.5484629571437836</v>
+        <v>0.524704959988594</v>
       </c>
       <c r="I152">
-        <v>0.5550450921058655</v>
+        <v>0.5215899467468261</v>
       </c>
       <c r="J152">
-        <v>0.5853525948945523</v>
+        <v>0.5573462625528803</v>
       </c>
       <c r="L152">
-        <v>37.58668188058918</v>
+        <v>41.71764602320449</v>
       </c>
       <c r="M152">
-        <v>39.17736526765645</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>45.99877860075145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.5462161302566528</v>
+        <v>0.5237610340118408</v>
       </c>
       <c r="C153">
-        <v>0.5486381649971008</v>
+        <v>0.5267626643180847</v>
       </c>
       <c r="D153">
-        <v>0.5404834151268005</v>
+        <v>0.5218296647071838</v>
       </c>
       <c r="E153">
-        <v>0.5414421558380127</v>
+        <v>0.5240558981895447</v>
       </c>
       <c r="F153">
-        <v>70542656</v>
+        <v>29427936</v>
       </c>
       <c r="G153">
-        <v>0.5514534839263987</v>
+        <v>0.5262601009868761</v>
       </c>
       <c r="H153">
-        <v>0.5481955647468567</v>
+        <v>0.5255670011043548</v>
       </c>
       <c r="I153">
-        <v>0.5539313375949859</v>
+        <v>0.5217991987864177</v>
       </c>
       <c r="J153">
-        <v>0.5847709996752604</v>
+        <v>0.5569053305745579</v>
       </c>
       <c r="L153">
-        <v>30.44483751514529</v>
+        <v>42.65940565928963</v>
       </c>
       <c r="M153">
-        <v>34.74228014328084</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>46.48920206964526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.5414425134658813</v>
+        <v>0.5240883827209473</v>
       </c>
       <c r="C154">
-        <v>0.5414848327636719</v>
+        <v>0.5289587378501892</v>
       </c>
       <c r="D154">
-        <v>0.5359846949577332</v>
+        <v>0.5216771960258484</v>
       </c>
       <c r="E154">
-        <v>0.5365979671478271</v>
+        <v>0.528369665145874</v>
       </c>
       <c r="F154">
-        <v>75854592</v>
+        <v>36232416</v>
       </c>
       <c r="G154">
-        <v>0.550102982401074</v>
+        <v>0.5264518795467851</v>
       </c>
       <c r="H154">
-        <v>0.5474255412817002</v>
+        <v>0.5262902706861496</v>
       </c>
       <c r="I154">
-        <v>0.5527643183867137</v>
+        <v>0.522268678744634</v>
       </c>
       <c r="J154">
-        <v>0.584132946264301</v>
+        <v>0.5565273747410655</v>
       </c>
       <c r="L154">
-        <v>25.03224427201631</v>
+        <v>54.10924763192501</v>
       </c>
       <c r="M154">
-        <v>30.9282552341731</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>52.82219342162323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.5365939140319824</v>
+        <v>0.5283766984939575</v>
       </c>
       <c r="C155">
-        <v>0.5369917154312134</v>
+        <v>0.5291168689727783</v>
       </c>
       <c r="D155">
-        <v>0.5274697542190552</v>
+        <v>0.5244687795639038</v>
       </c>
       <c r="E155">
-        <v>0.5309643745422363</v>
+        <v>0.5250077247619629</v>
       </c>
       <c r="F155">
-        <v>183192000</v>
+        <v>58125504</v>
       </c>
       <c r="G155">
-        <v>0.5483631089593615</v>
+        <v>0.5263205927481649</v>
       </c>
       <c r="H155">
-        <v>0.5465139210224151</v>
+        <v>0.5268596112728119</v>
       </c>
       <c r="I155">
-        <v>0.5514549255371094</v>
+        <v>0.522605816523234</v>
       </c>
       <c r="J155">
-        <v>0.5834287267712935</v>
+        <v>0.5561098959333952</v>
       </c>
       <c r="L155">
-        <v>20.30849904484391</v>
+        <v>46.0474998190851</v>
       </c>
       <c r="M155">
-        <v>27.18989001324678</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>48.04939188861785</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.5308926105499268</v>
+        <v>0.5249865651130676</v>
       </c>
       <c r="C156">
-        <v>0.5332898497581482</v>
+        <v>0.5285182595252991</v>
       </c>
       <c r="D156">
-        <v>0.5233298540115356</v>
+        <v>0.5215699672698975</v>
       </c>
       <c r="E156">
-        <v>0.5283724665641785</v>
+        <v>0.5256611704826355</v>
       </c>
       <c r="F156">
-        <v>112355264</v>
+        <v>82849856</v>
       </c>
       <c r="G156">
-        <v>0.5465457778325267</v>
+        <v>0.5262606452694804</v>
       </c>
       <c r="H156">
-        <v>0.545586958527565</v>
+        <v>0.5274936825037002</v>
       </c>
       <c r="I156">
-        <v>0.5501164217789968</v>
+        <v>0.5229049901167552</v>
       </c>
       <c r="J156">
-        <v>0.5826995047817953</v>
+        <v>0.555706601556564</v>
       </c>
       <c r="L156">
-        <v>18.50141524800361</v>
+        <v>47.74972999395079</v>
       </c>
       <c r="M156">
-        <v>25.65353243791241</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>49.01369741772843</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.528432309627533</v>
+        <v>0.525655210018158</v>
       </c>
       <c r="C157">
-        <v>0.5348336100578308</v>
+        <v>0.5269477367401123</v>
       </c>
       <c r="D157">
-        <v>0.5219167470932007</v>
+        <v>0.5206354260444641</v>
       </c>
       <c r="E157">
-        <v>0.5249413847923279</v>
+        <v>0.5268596410751343</v>
       </c>
       <c r="F157">
-        <v>145346304</v>
+        <v>62121664</v>
       </c>
       <c r="G157">
-        <v>0.5445817421015995</v>
+        <v>0.5263150994336308</v>
       </c>
       <c r="H157">
-        <v>0.5443541079759597</v>
+        <v>0.5282474547624588</v>
       </c>
       <c r="I157">
-        <v>0.5485843857129414</v>
+        <v>0.5232616225878398</v>
       </c>
       <c r="J157">
-        <v>0.5819344965700144</v>
+        <v>0.5553245226097901</v>
       </c>
       <c r="L157">
-        <v>16.33657660724656</v>
+        <v>50.94329299760086</v>
       </c>
       <c r="M157">
-        <v>23.74111725986675</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>50.8168917759097</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.5251278877258301</v>
+        <v>0.5269955396652222</v>
       </c>
       <c r="C158">
-        <v>0.5317145586013794</v>
+        <v>0.5373381376266479</v>
       </c>
       <c r="D158">
-        <v>0.5251278877258301</v>
+        <v>0.5261250138282776</v>
       </c>
       <c r="E158">
-        <v>0.5265254378318787</v>
+        <v>0.5361175537109375</v>
       </c>
       <c r="F158">
-        <v>73844992</v>
+        <v>108771008</v>
       </c>
       <c r="G158">
-        <v>0.5429402598952612</v>
+        <v>0.5272062316406586</v>
       </c>
       <c r="H158">
-        <v>0.5437275171279907</v>
+        <v>0.5289960473775863</v>
       </c>
       <c r="I158">
-        <v>0.5472039659818013</v>
+        <v>0.5239799896876017</v>
       </c>
       <c r="J158">
-        <v>0.5812006017522908</v>
+        <v>0.5550701256707326</v>
       </c>
       <c r="L158">
-        <v>21.12976905223523</v>
+        <v>67.9610787829769</v>
       </c>
       <c r="M158">
-        <v>26.46659728806994</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>61.99762210388106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.526878833770752</v>
+        <v>0.536083996295929</v>
       </c>
       <c r="C159">
-        <v>0.5299248695373535</v>
+        <v>0.5395770072937012</v>
       </c>
       <c r="D159">
-        <v>0.5227137804031372</v>
+        <v>0.5351389050483704</v>
       </c>
       <c r="E159">
-        <v>0.5297736525535583</v>
+        <v>0.5352175235748291</v>
       </c>
       <c r="F159">
-        <v>4917376</v>
+        <v>29804416</v>
       </c>
       <c r="G159">
-        <v>0.5417432955914699</v>
+        <v>0.5279345309074014</v>
       </c>
       <c r="H159">
-        <v>0.5429250687360764</v>
+        <v>0.5297084063291549</v>
       </c>
       <c r="I159">
-        <v>0.5460038264592488</v>
+        <v>0.5245546201864878</v>
       </c>
       <c r="J159">
-        <v>0.5805194501072746</v>
+        <v>0.5548071772986014</v>
       </c>
       <c r="L159">
-        <v>30.33681096289111</v>
+        <v>65.47686463402415</v>
       </c>
       <c r="M159">
-        <v>31.84565046325799</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>60.5563611265204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.529716968536377</v>
+        <v>0.5351325869560242</v>
       </c>
       <c r="C160">
-        <v>0.5310247540473938</v>
+        <v>0.5387037396430969</v>
       </c>
       <c r="D160">
-        <v>0.5218281149864197</v>
+        <v>0.5339264273643494</v>
       </c>
       <c r="E160">
-        <v>0.5218281149864197</v>
+        <v>0.5372360348701477</v>
       </c>
       <c r="F160">
-        <v>51431936</v>
+        <v>14908032</v>
       </c>
       <c r="G160">
-        <v>0.5399328246273745</v>
+        <v>0.528780122176742</v>
       </c>
       <c r="H160">
-        <v>0.5418025225400924</v>
+        <v>0.5299458086490632</v>
       </c>
       <c r="I160">
-        <v>0.5444701234499614</v>
+        <v>0.5252905348936717</v>
       </c>
       <c r="J160">
-        <v>0.5797420814301771</v>
+        <v>0.5545744469353107</v>
       </c>
       <c r="L160">
-        <v>22.96075440300615</v>
+        <v>68.39196135973101</v>
       </c>
       <c r="M160">
-        <v>26.70044311007705</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
+        <v>62.65326742134413</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6411,40 +6402,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.5218654870986938</v>
+        <v>0.5373974442481995</v>
       </c>
       <c r="C161">
-        <v>0.5228410363197327</v>
+        <v>0.5376037955284119</v>
       </c>
       <c r="D161">
-        <v>0.5026435256004333</v>
+        <v>0.5314140915870667</v>
       </c>
       <c r="E161">
-        <v>0.5040100812911987</v>
+        <v>0.5338691473007202</v>
       </c>
       <c r="F161">
-        <v>219734528</v>
+        <v>19891712</v>
       </c>
       <c r="G161">
-        <v>0.536667120687722</v>
+        <v>0.5292427608243764</v>
       </c>
       <c r="H161">
-        <v>0.5398465484380722</v>
+        <v>0.5300347506999969</v>
       </c>
       <c r="I161">
-        <v>0.542519191900889</v>
+        <v>0.5259539643923442</v>
       </c>
       <c r="J161">
-        <v>0.5787390085806542</v>
+        <v>0.5543002045560446</v>
       </c>
       <c r="L161">
-        <v>14.23129004829355</v>
+        <v>59.0374653354694</v>
       </c>
       <c r="M161">
-        <v>19.20635390177616</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>57.19170149497599</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6452,40 +6440,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.5040526986122131</v>
+        <v>0.5339056253433228</v>
       </c>
       <c r="C162">
-        <v>0.5115483999252319</v>
+        <v>0.5344833135604858</v>
       </c>
       <c r="D162">
-        <v>0.4975452125072479</v>
+        <v>0.5313025712966919</v>
       </c>
       <c r="E162">
-        <v>0.5097922086715698</v>
+        <v>0.5337773561477661</v>
       </c>
       <c r="F162">
-        <v>116400896</v>
+        <v>5607552</v>
       </c>
       <c r="G162">
-        <v>0.5342239468680718</v>
+        <v>0.5296549967628663</v>
       </c>
       <c r="H162">
-        <v>0.5378611087799072</v>
+        <v>0.5300946235656738</v>
       </c>
       <c r="I162">
-        <v>0.5407835662364959</v>
+        <v>0.5266756971677145</v>
       </c>
       <c r="J162">
-        <v>0.5778258059328518</v>
+        <v>0.5540283787493124</v>
       </c>
       <c r="L162">
-        <v>24.68484947885912</v>
+        <v>58.79083318809389</v>
       </c>
       <c r="M162">
-        <v>26.42329691059799</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
+        <v>57.04570135449683</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6493,40 +6478,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.5098393559455872</v>
+        <v>0.5337911248207092</v>
       </c>
       <c r="C163">
-        <v>0.5126063823699951</v>
+        <v>0.5351899862289429</v>
       </c>
       <c r="D163">
-        <v>0.5069970488548279</v>
+        <v>0.5242207050323486</v>
       </c>
       <c r="E163">
-        <v>0.5081593990325928</v>
+        <v>0.5258286595344543</v>
       </c>
       <c r="F163">
-        <v>18831488</v>
+        <v>127713536</v>
       </c>
       <c r="G163">
-        <v>0.531854442519392</v>
+        <v>0.5293071479239198</v>
       </c>
       <c r="H163">
-        <v>0.5358163982629776</v>
+        <v>0.5299658089876175</v>
       </c>
       <c r="I163">
-        <v>0.5394958794116974</v>
+        <v>0.5273094832897186</v>
       </c>
       <c r="J163">
-        <v>0.5769030720666232</v>
+        <v>0.553654872534546</v>
       </c>
       <c r="L163">
-        <v>23.76468023575972</v>
+        <v>41.7852201095426</v>
       </c>
       <c r="M163">
-        <v>25.72449276596206</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
+        <v>46.07640799861993</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6534,37 +6516,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.5081048607826233</v>
+        <v>0.5258200764656067</v>
       </c>
       <c r="C164">
-        <v>0.5188096761703491</v>
+        <v>0.5284011363983154</v>
       </c>
       <c r="D164">
-        <v>0.5069274306297302</v>
+        <v>0.5153616666793823</v>
       </c>
       <c r="E164">
-        <v>0.5177783370018005</v>
+        <v>0.5167421698570251</v>
       </c>
       <c r="F164">
-        <v>22840064</v>
+        <v>205756928</v>
       </c>
       <c r="G164">
-        <v>0.5305747965632472</v>
+        <v>0.5281648771905657</v>
       </c>
       <c r="H164">
-        <v>0.5343056946992875</v>
+        <v>0.5293152064085007</v>
       </c>
       <c r="I164">
-        <v>0.5383552094300588</v>
+        <v>0.5274040798346201</v>
       </c>
       <c r="J164">
-        <v>0.5761199629929169</v>
+        <v>0.5531659625653074</v>
       </c>
       <c r="L164">
-        <v>38.86737276547144</v>
+        <v>30.45584282113889</v>
       </c>
       <c r="M164">
-        <v>36.39607122707181</v>
+        <v>37.25685098998376</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6572,37 +6554,40 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.5177526473999023</v>
+        <v>0.5161979198455811</v>
       </c>
       <c r="C165">
-        <v>0.5183976292610168</v>
+        <v>0.5161979198455811</v>
       </c>
       <c r="D165">
-        <v>0.5130015015602112</v>
+        <v>0.5086383819580078</v>
       </c>
       <c r="E165">
-        <v>0.5142852663993835</v>
+        <v>0.5107519626617432</v>
       </c>
       <c r="F165">
-        <v>8816256</v>
+        <v>436818688</v>
       </c>
       <c r="G165">
-        <v>0.5290939301847142</v>
+        <v>0.5265818849606727</v>
       </c>
       <c r="H165">
-        <v>0.5326827585697174</v>
+        <v>0.5283495545387268</v>
       </c>
       <c r="I165">
-        <v>0.537191492319107</v>
+        <v>0.527308448155721</v>
       </c>
       <c r="J165">
-        <v>0.5753009603890291</v>
+        <v>0.5526041877321476</v>
       </c>
       <c r="L165">
-        <v>35.95721233433982</v>
+        <v>25.35692354817985</v>
       </c>
       <c r="M165">
-        <v>34.45982313574059</v>
+        <v>32.79959996241283</v>
+      </c>
+      <c r="N165" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6610,37 +6595,40 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.5142813324928284</v>
+        <v>0.5106808543205261</v>
       </c>
       <c r="C166">
-        <v>0.5172351598739624</v>
+        <v>0.5106924176216125</v>
       </c>
       <c r="D166">
-        <v>0.5111770033836365</v>
+        <v>0.5050669312477112</v>
       </c>
       <c r="E166">
-        <v>0.5148935914039612</v>
+        <v>0.5105293393135071</v>
       </c>
       <c r="F166">
-        <v>18133248</v>
+        <v>94886400</v>
       </c>
       <c r="G166">
-        <v>0.5278029902955548</v>
+        <v>0.5251225626291122</v>
       </c>
       <c r="H166">
-        <v>0.5307750761508941</v>
+        <v>0.5273706793785096</v>
       </c>
       <c r="I166">
-        <v>0.5361242214838664</v>
+        <v>0.5272267679373424</v>
       </c>
       <c r="J166">
-        <v>0.5745008627865779</v>
+        <v>0.5520469049716359</v>
       </c>
       <c r="L166">
-        <v>36.88309986185854</v>
+        <v>25.18066261863649</v>
       </c>
       <c r="M166">
-        <v>35.10728682350661</v>
+        <v>32.64329653250326</v>
+      </c>
+      <c r="N166" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6648,37 +6636,40 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.5149276256561279</v>
+        <v>0.5105165243148804</v>
       </c>
       <c r="C167">
-        <v>0.5183027982711792</v>
+        <v>0.51375412940979</v>
       </c>
       <c r="D167">
-        <v>0.5112990736961365</v>
+        <v>0.5100414156913757</v>
       </c>
       <c r="E167">
-        <v>0.516685962677002</v>
+        <v>0.5122264623641968</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>19181568</v>
       </c>
       <c r="G167">
-        <v>0.5267923514211409</v>
+        <v>0.5239501898777562</v>
       </c>
       <c r="H167">
-        <v>0.5289292663335801</v>
+        <v>0.5264684945344925</v>
       </c>
       <c r="I167">
-        <v>0.535027140378952</v>
+        <v>0.5272415101528167</v>
       </c>
       <c r="J167">
-        <v>0.573735102520226</v>
+        <v>0.5515194818907426</v>
       </c>
       <c r="L167">
-        <v>39.76945412704282</v>
+        <v>29.39006507858159</v>
       </c>
       <c r="M167">
-        <v>37.0796017449915</v>
+        <v>35.17925021345079</v>
+      </c>
+      <c r="N167" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6686,37 +6677,40 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.5166871547698975</v>
+        <v>0.5118240714073181</v>
       </c>
       <c r="C168">
-        <v>0.5176892876625061</v>
+        <v>0.5118240714073181</v>
       </c>
       <c r="D168">
-        <v>0.5130350589752197</v>
+        <v>0.5020610690116882</v>
       </c>
       <c r="E168">
-        <v>0.5161606669425964</v>
+        <v>0.5067468285560608</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>66571648</v>
       </c>
       <c r="G168">
-        <v>0.5258258346503641</v>
+        <v>0.5223862479394202</v>
       </c>
       <c r="H168">
-        <v>0.5271251946687698</v>
+        <v>0.5251603722572327</v>
       </c>
       <c r="I168">
-        <v>0.5342639207839965</v>
+        <v>0.526761547724406</v>
       </c>
       <c r="J168">
-        <v>0.572972527214562</v>
+        <v>0.5509264666147866</v>
       </c>
       <c r="L168">
-        <v>39.17873262641354</v>
+        <v>24.40304286761666</v>
       </c>
       <c r="M168">
-        <v>36.72728785179515</v>
+        <v>31.10694150419409</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6724,37 +6718,40 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.5161218643188477</v>
+        <v>0.5067432522773743</v>
       </c>
       <c r="C169">
-        <v>0.5173995494842529</v>
+        <v>0.5088163614273071</v>
       </c>
       <c r="D169">
-        <v>0.5129128098487854</v>
+        <v>0.4945420622825622</v>
       </c>
       <c r="E169">
-        <v>0.5145665407180786</v>
+        <v>0.5086454153060913</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>241061632</v>
       </c>
       <c r="G169">
-        <v>0.5248022624747019</v>
+        <v>0.5211370813363903</v>
       </c>
       <c r="H169">
-        <v>0.5252557903528213</v>
+        <v>0.5240609526634217</v>
       </c>
       <c r="I169">
-        <v>0.5332220514615377</v>
+        <v>0.526350716749827</v>
       </c>
       <c r="J169">
-        <v>0.5721989379894431</v>
+        <v>0.5503664526901682</v>
       </c>
       <c r="L169">
-        <v>37.28781985693591</v>
+        <v>29.09292326691178</v>
       </c>
       <c r="M169">
-        <v>35.62115764237107</v>
+        <v>33.95945907662109</v>
+      </c>
+      <c r="N169" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6762,37 +6759,37 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.5145083069801331</v>
+        <v>0.5087105631828308</v>
       </c>
       <c r="C170">
-        <v>0.5188667178153992</v>
+        <v>0.5135019421577454</v>
       </c>
       <c r="D170">
-        <v>0.5134965777397156</v>
+        <v>0.507611870765686</v>
       </c>
       <c r="E170">
-        <v>0.5179786086082458</v>
+        <v>0.5108802318572998</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.524181930305024</v>
+        <v>0.5202046404746548</v>
       </c>
       <c r="H170">
-        <v>0.523583921790123</v>
+        <v>0.523088788986206</v>
       </c>
       <c r="I170">
-        <v>0.5323453704516093</v>
+        <v>0.5256304581960042</v>
       </c>
       <c r="J170">
-        <v>0.571480787931414</v>
+        <v>0.5498434563877461</v>
       </c>
       <c r="L170">
-        <v>43.81720022676861</v>
+        <v>34.47589965907836</v>
       </c>
       <c r="M170">
-        <v>39.80033776885321</v>
+        <v>37.25284784011736</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6800,37 +6797,40 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.5179817676544189</v>
+        <v>0.5108795166015625</v>
       </c>
       <c r="C171">
-        <v>0.5179817676544189</v>
+        <v>0.5108795166015625</v>
       </c>
       <c r="D171">
-        <v>0.5143039226531982</v>
+        <v>0.5005866885185242</v>
       </c>
       <c r="E171">
-        <v>0.5151585936546326</v>
+        <v>0.5032401084899902</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0.5233616269731702</v>
+        <v>0.5186624102942307</v>
       </c>
       <c r="H171">
-        <v>0.5218072980642319</v>
+        <v>0.5217752248048783</v>
       </c>
       <c r="I171">
-        <v>0.5314130047957103</v>
+        <v>0.5246687849362691</v>
       </c>
       <c r="J171">
-        <v>0.5707347986032447</v>
+        <v>0.5492261935016832</v>
       </c>
       <c r="L171">
-        <v>39.94978513181437</v>
+        <v>26.68467362506566</v>
       </c>
       <c r="M171">
-        <v>37.62634359971181</v>
+        <v>31.47415475515243</v>
+      </c>
+      <c r="N171" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6838,37 +6838,40 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.5151543617248535</v>
+        <v>0.503176212310791</v>
       </c>
       <c r="C172">
-        <v>0.5153561234474182</v>
+        <v>0.5034642815589905</v>
       </c>
       <c r="D172">
-        <v>0.5094297528266907</v>
+        <v>0.4929213225841522</v>
       </c>
       <c r="E172">
-        <v>0.5139662623405457</v>
+        <v>0.4972582757472992</v>
       </c>
       <c r="F172">
-        <v>9232704</v>
+        <v>41176448</v>
       </c>
       <c r="G172">
-        <v>0.522507502915659</v>
+        <v>0.5167165798808733</v>
       </c>
       <c r="H172">
-        <v>0.5201940536499023</v>
+        <v>0.5204510584473609</v>
       </c>
       <c r="I172">
-        <v>0.5302285134792328</v>
+        <v>0.5234913975000381</v>
       </c>
       <c r="J172">
-        <v>0.5699828974606924</v>
+        <v>0.5485378767102345</v>
       </c>
       <c r="L172">
-        <v>38.34014790036111</v>
+        <v>22.2547236801258</v>
       </c>
       <c r="M172">
-        <v>36.71323077305215</v>
+        <v>27.83367010886983</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6876,37 +6879,40 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.5139791369438171</v>
+        <v>0.4972499310970306</v>
       </c>
       <c r="C173">
-        <v>0.5140283107757568</v>
+        <v>0.4980378150939941</v>
       </c>
       <c r="D173">
-        <v>0.5106081962585449</v>
+        <v>0.491976648569107</v>
       </c>
       <c r="E173">
-        <v>0.5121253728866577</v>
+        <v>0.4930184185504913</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>48702592</v>
       </c>
       <c r="G173">
-        <v>0.5215636729130224</v>
+        <v>0.5145622015781113</v>
       </c>
       <c r="H173">
-        <v>0.5187282145023346</v>
+        <v>0.5188991844654083</v>
       </c>
       <c r="I173">
-        <v>0.5289975722630819</v>
+        <v>0.5223118464152018</v>
       </c>
       <c r="J173">
-        <v>0.5692165726318973</v>
+        <v>0.547802519648516</v>
       </c>
       <c r="L173">
-        <v>35.83246008875248</v>
+        <v>19.65313704756087</v>
       </c>
       <c r="M173">
-        <v>35.28929357884473</v>
+        <v>25.57562300817996</v>
+      </c>
+      <c r="N173" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6914,37 +6920,37 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.5121331810951233</v>
+        <v>0.492935448884964</v>
       </c>
       <c r="C174">
-        <v>0.5125804543495178</v>
+        <v>0.4968892335891723</v>
       </c>
       <c r="D174">
-        <v>0.5058143138885498</v>
+        <v>0.4903467297554016</v>
       </c>
       <c r="E174">
-        <v>0.5068150758743286</v>
+        <v>0.4929524958133697</v>
       </c>
       <c r="F174">
-        <v>6697216</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.5202228913640503</v>
+        <v>0.5125976828722256</v>
       </c>
       <c r="H174">
-        <v>0.5172390699386596</v>
+        <v>0.5171283259987831</v>
       </c>
       <c r="I174">
-        <v>0.5276249945163727</v>
+        <v>0.5210851222276688</v>
       </c>
       <c r="J174">
-        <v>0.5683900627410686</v>
+        <v>0.5470760292665936</v>
       </c>
       <c r="L174">
-        <v>29.5584529284413</v>
+        <v>19.61303215561007</v>
       </c>
       <c r="M174">
-        <v>31.49457348157698</v>
+        <v>25.54092792941458</v>
       </c>
       <c r="N174" t="s">
         <v>195</v>
@@ -6955,37 +6961,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.5067604780197144</v>
+        <v>0.4929438829421997</v>
       </c>
       <c r="C175">
-        <v>0.514610230922699</v>
+        <v>0.5019633173942566</v>
       </c>
       <c r="D175">
-        <v>0.5043697953224182</v>
+        <v>0.4926598370075226</v>
       </c>
       <c r="E175">
-        <v>0.5139042735099792</v>
+        <v>0.499860942363739</v>
       </c>
       <c r="F175">
-        <v>22837248</v>
+        <v>4354432</v>
       </c>
       <c r="G175">
-        <v>0.5196484715591347</v>
+        <v>0.5114397973714541</v>
       </c>
       <c r="H175">
-        <v>0.5163860648870469</v>
+        <v>0.5158709868788719</v>
       </c>
       <c r="I175">
-        <v>0.5265303373336792</v>
+        <v>0.5200783203045527</v>
       </c>
       <c r="J175">
-        <v>0.5676683966585377</v>
+        <v>0.5464506638771518</v>
       </c>
       <c r="L175">
-        <v>44.22529083984978</v>
+        <v>35.20221415791886</v>
       </c>
       <c r="M175">
-        <v>40.66721592576432</v>
+        <v>35.42697437357182</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6993,268 +6999,265 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.5139392018318176</v>
+        <v>0.499762088060379</v>
       </c>
       <c r="C176">
-        <v>0.5151642560958862</v>
+        <v>0.5100992918014526</v>
       </c>
       <c r="D176">
-        <v>0.5117205381393433</v>
+        <v>0.4981711506843567</v>
       </c>
       <c r="E176">
-        <v>0.513620913028717</v>
+        <v>0.5095357894897461</v>
       </c>
       <c r="F176">
-        <v>28126528</v>
+        <v>5389056</v>
       </c>
       <c r="G176">
-        <v>0.5191005116927331</v>
+        <v>0.5112667057458442</v>
       </c>
       <c r="H176">
-        <v>0.5156484872102738</v>
+        <v>0.5150647178292275</v>
       </c>
       <c r="I176">
-        <v>0.5252161264419556</v>
+        <v>0.5193926185369492</v>
       </c>
       <c r="J176">
-        <v>0.566952535948209</v>
+        <v>0.5459617251435438</v>
       </c>
       <c r="L176">
-        <v>43.81506240374072</v>
+        <v>50.36668323511146</v>
       </c>
       <c r="M176">
-        <v>40.43416819189019</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>46.19995871553004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.5135818719863892</v>
+        <v>0.5095260143280029</v>
       </c>
       <c r="C177">
-        <v>0.5135818719863892</v>
+        <v>0.5095260143280029</v>
       </c>
       <c r="D177">
-        <v>0.5089545249938965</v>
+        <v>0.5042188167572021</v>
       </c>
       <c r="E177">
-        <v>0.5129797458648682</v>
+        <v>0.5058635473251343</v>
       </c>
       <c r="F177">
-        <v>35071104</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0.5185440784356544</v>
+        <v>0.5107755095257797</v>
       </c>
       <c r="H177">
-        <v>0.5150504052639008</v>
+        <v>0.5140149131417274</v>
       </c>
       <c r="I177">
-        <v>0.5238620460033416</v>
+        <v>0.5185790648063023</v>
       </c>
       <c r="J177">
-        <v>0.5662376645563768</v>
+        <v>0.5454306234505847</v>
       </c>
       <c r="L177">
-        <v>42.80435025369597</v>
+        <v>45.79070358706166</v>
       </c>
       <c r="M177">
-        <v>39.87731207542507</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>43.25046447074662</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.5129811763763428</v>
+        <v>0.5058603882789612</v>
       </c>
       <c r="C178">
-        <v>0.5146520733833313</v>
+        <v>0.5072954893112183</v>
       </c>
       <c r="D178">
-        <v>0.5102934241294861</v>
+        <v>0.5042883157730103</v>
       </c>
       <c r="E178">
-        <v>0.5117841958999634</v>
+        <v>0.506447434425354</v>
       </c>
       <c r="F178">
-        <v>8775104</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>0.5179295436596825</v>
+        <v>0.5103820481530137</v>
       </c>
       <c r="H178">
-        <v>0.514313343167305</v>
+        <v>0.5125314071774483</v>
       </c>
       <c r="I178">
-        <v>0.5225134491920471</v>
+        <v>0.5176970034837722</v>
       </c>
       <c r="J178">
-        <v>0.5655164265609276</v>
+        <v>0.5449142898211115</v>
       </c>
       <c r="L178">
-        <v>40.82866302932416</v>
+        <v>46.65759247262361</v>
       </c>
       <c r="M178">
-        <v>38.80417769824503</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>43.86412573075917</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.5117359757423401</v>
+        <v>0.5063687562942505</v>
       </c>
       <c r="C179">
-        <v>0.5217233300209045</v>
+        <v>0.5068622827529907</v>
       </c>
       <c r="D179">
-        <v>0.5112245678901672</v>
+        <v>0.5036099553108215</v>
       </c>
       <c r="E179">
-        <v>0.5211457014083862</v>
+        <v>0.5066303610801697</v>
       </c>
       <c r="F179">
-        <v>55427264</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.5182219216368373</v>
+        <v>0.5100409856918461</v>
       </c>
       <c r="H179">
-        <v>0.5138819456100464</v>
+        <v>0.5111020490527153</v>
       </c>
       <c r="I179">
-        <v>0.5214864850044251</v>
+        <v>0.5168968886137009</v>
       </c>
       <c r="J179">
-        <v>0.5649287348370529</v>
+        <v>0.5444072179172579</v>
       </c>
       <c r="L179">
-        <v>57.93288992205339</v>
+        <v>46.95655860389399</v>
       </c>
       <c r="M179">
-        <v>50.12278676831177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>44.06818583186335</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.5211511850357056</v>
+        <v>0.5066288113594055</v>
       </c>
       <c r="C180">
-        <v>0.5212403535842896</v>
+        <v>0.5067957639694214</v>
       </c>
       <c r="D180">
-        <v>0.5175036787986755</v>
+        <v>0.5032685995101929</v>
       </c>
       <c r="E180">
-        <v>0.520970344543457</v>
+        <v>0.5046786069869995</v>
       </c>
       <c r="F180">
-        <v>23094848</v>
+        <v>8857728</v>
       </c>
       <c r="G180">
-        <v>0.5184717782647118</v>
+        <v>0.5095534967186782</v>
       </c>
       <c r="H180">
-        <v>0.5138390570878982</v>
+        <v>0.5094741776585578</v>
       </c>
       <c r="I180">
-        <v>0.5204716304937999</v>
+        <v>0.5160420586665472</v>
       </c>
       <c r="J180">
-        <v>0.5643465045020384</v>
+        <v>0.5438810111499698</v>
       </c>
       <c r="L180">
-        <v>57.58213046141366</v>
+        <v>43.9967054551286</v>
       </c>
       <c r="M180">
-        <v>49.93647045297575</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>42.30131709571474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.5209819674491882</v>
+        <v>0.5046001672744751</v>
       </c>
       <c r="C181">
-        <v>0.5352250933647156</v>
+        <v>0.50467449426651</v>
       </c>
       <c r="D181">
-        <v>0.5209819674491882</v>
+        <v>0.4991725087165832</v>
       </c>
       <c r="E181">
-        <v>0.5324879884719849</v>
+        <v>0.5027676820755005</v>
       </c>
       <c r="F181">
-        <v>108954624</v>
+        <v>46982208</v>
       </c>
       <c r="G181">
-        <v>0.5197459791926458</v>
+        <v>0.5089366044783894</v>
       </c>
       <c r="H181">
-        <v>0.5152629524469375</v>
+        <v>0.5079191043972969</v>
       </c>
       <c r="I181">
-        <v>0.5198648611704508</v>
+        <v>0.5151506016651789</v>
       </c>
       <c r="J181">
-        <v>0.5639245374023025</v>
+        <v>0.5433364637450099</v>
       </c>
       <c r="L181">
-        <v>70.69336432047983</v>
+        <v>41.14034581731749</v>
       </c>
       <c r="M181">
-        <v>60.35924139525834</v>
-      </c>
-      <c r="O181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>40.58556735431117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.5325120091438293</v>
+        <v>0.5027294158935547</v>
       </c>
       <c r="C182">
-        <v>0.5334463119506836</v>
+        <v>0.5039600729942322</v>
       </c>
       <c r="D182">
-        <v>0.5296971797943115</v>
+        <v>0.5026993155479431</v>
       </c>
       <c r="E182">
-        <v>0.5308495163917542</v>
+        <v>0.5031853318214417</v>
       </c>
       <c r="F182">
-        <v>22090816</v>
+        <v>7751488</v>
       </c>
       <c r="G182">
-        <v>0.5207553916652919</v>
+        <v>0.508413761509576</v>
       </c>
       <c r="H182">
-        <v>0.5163158178329468</v>
+        <v>0.5063895031809806</v>
       </c>
       <c r="I182">
-        <v>0.5193521400292714</v>
+        <v>0.5144653926293056</v>
       </c>
       <c r="J182">
-        <v>0.5634864576538184</v>
+        <v>0.5428046606731746</v>
       </c>
       <c r="L182">
-        <v>67.36115586421909</v>
+        <v>42.06515828765551</v>
       </c>
       <c r="M182">
-        <v>58.4935917113807</v>
+        <v>41.14741540112943</v>
       </c>
     </row>
   </sheetData>
